--- a/Cosmicode Data/Lead Flow.xlsx
+++ b/Cosmicode Data/Lead Flow.xlsx
@@ -482,9 +482,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
+      <xdr:colOff>570960</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -494,7 +494,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7091280" y="169200"/>
-          <a:ext cx="4487400" cy="905400"/>
+          <a:ext cx="4486680" cy="904680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,9 +559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>343800</xdr:colOff>
+      <xdr:colOff>343080</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -571,7 +571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="188280" y="2116800"/>
-          <a:ext cx="1378440" cy="768240"/>
+          <a:ext cx="1377720" cy="767520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -638,9 +638,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>191880</xdr:colOff>
+      <xdr:colOff>191160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>47160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -650,7 +650,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1868760" y="2106360"/>
-          <a:ext cx="1380600" cy="768240"/>
+          <a:ext cx="1379880" cy="767520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -717,9 +717,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>69120</xdr:colOff>
+      <xdr:colOff>68400</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -729,7 +729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3575880" y="2073600"/>
-          <a:ext cx="1385280" cy="768240"/>
+          <a:ext cx="1384560" cy="767520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -796,9 +796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -808,7 +808,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5346360" y="2095200"/>
-          <a:ext cx="1385640" cy="768240"/>
+          <a:ext cx="1384920" cy="767520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -875,9 +875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>543240</xdr:colOff>
+      <xdr:colOff>542520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -887,7 +887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7112160" y="2103480"/>
-          <a:ext cx="1380600" cy="768240"/>
+          <a:ext cx="1379880" cy="767520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -954,9 +954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>435960</xdr:colOff>
+      <xdr:colOff>435240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -966,7 +966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8839440" y="2091600"/>
-          <a:ext cx="1380600" cy="768240"/>
+          <a:ext cx="1379880" cy="767520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1033,9 +1033,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>326160</xdr:colOff>
+      <xdr:colOff>325440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1045,7 +1045,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10570320" y="2105640"/>
-          <a:ext cx="1374120" cy="768240"/>
+          <a:ext cx="1373400" cy="767520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1112,9 +1112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>209520</xdr:colOff>
+      <xdr:colOff>208800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1124,7 +1124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12288240" y="2095560"/>
-          <a:ext cx="1374120" cy="768240"/>
+          <a:ext cx="1373400" cy="767520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1191,9 +1191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>162360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1203,7 +1203,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14075640" y="2091960"/>
-          <a:ext cx="1374840" cy="768240"/>
+          <a:ext cx="1374120" cy="767520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1270,9 +1270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>68040</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1282,7 +1282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15804720" y="2098800"/>
-          <a:ext cx="1385280" cy="768240"/>
+          <a:ext cx="1384560" cy="767520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1349,9 +1349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>91800</xdr:colOff>
+      <xdr:colOff>91080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1361,7 +1361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15835680" y="3548160"/>
-          <a:ext cx="1378080" cy="1103400"/>
+          <a:ext cx="1377360" cy="1102680"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1420,15 +1420,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>593280</xdr:colOff>
+      <xdr:colOff>592560</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>44280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1437,8 +1437,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="16492320" y="2871000"/>
-          <a:ext cx="28800" cy="673200"/>
+          <a:off x="16491600" y="2871000"/>
+          <a:ext cx="28080" cy="672480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1482,9 +1482,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>151560</xdr:colOff>
+      <xdr:colOff>150840</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1494,7 +1494,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14100120" y="3608280"/>
-          <a:ext cx="1338840" cy="1174680"/>
+          <a:ext cx="1338120" cy="1173960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1559,9 +1559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>60120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1571,7 +1571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12299760" y="3618000"/>
-          <a:ext cx="1401480" cy="1174680"/>
+          <a:ext cx="1400760" cy="1173960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1636,9 +1636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>330120</xdr:colOff>
+      <xdr:colOff>329400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1648,7 +1648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10610280" y="3548160"/>
-          <a:ext cx="1338120" cy="1174680"/>
+          <a:ext cx="1337400" cy="1173960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1713,9 +1713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>522000</xdr:colOff>
+      <xdr:colOff>521280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1725,7 +1725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8847360" y="3571920"/>
-          <a:ext cx="1458720" cy="1175400"/>
+          <a:ext cx="1458000" cy="1174680"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1790,9 +1790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>532080</xdr:colOff>
+      <xdr:colOff>531360</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1802,7 +1802,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7143840" y="3632040"/>
-          <a:ext cx="1337760" cy="1174680"/>
+          <a:ext cx="1337040" cy="1173960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1867,9 +1867,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>422280</xdr:colOff>
+      <xdr:colOff>421560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1879,7 +1879,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="202320" y="3632040"/>
-          <a:ext cx="1442880" cy="1174680"/>
+          <a:ext cx="1442160" cy="1173960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1944,9 +1944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>184320</xdr:colOff>
+      <xdr:colOff>183600</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>84600</xdr:rowOff>
+      <xdr:rowOff>83880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1956,7 +1956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904040" y="3641760"/>
-          <a:ext cx="1337760" cy="1174680"/>
+          <a:ext cx="1337040" cy="1173960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2021,9 +2021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>62640</xdr:colOff>
+      <xdr:colOff>61920</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2033,7 +2033,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3612240" y="3663000"/>
-          <a:ext cx="1342440" cy="1174680"/>
+          <a:ext cx="1341720" cy="1173960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2098,9 +2098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>572400</xdr:colOff>
+      <xdr:colOff>571680</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2110,7 +2110,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5349240" y="3672720"/>
-          <a:ext cx="1338120" cy="1174680"/>
+          <a:ext cx="1337400" cy="1173960"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2169,15 +2169,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
+      <xdr:colOff>83880</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>37440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>87480</xdr:colOff>
+      <xdr:colOff>86040</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>15480</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2186,8 +2186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14760720" y="2864160"/>
-          <a:ext cx="2880" cy="740160"/>
+          <a:off x="14760000" y="2864160"/>
+          <a:ext cx="2160" cy="739440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2231,9 +2231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>131400</xdr:colOff>
+      <xdr:colOff>130680</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2243,7 +2243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12970080" y="2868120"/>
-          <a:ext cx="2880" cy="745920"/>
+          <a:ext cx="2160" cy="745200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2281,15 +2281,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>248400</xdr:colOff>
+      <xdr:colOff>247680</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>51120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>145800</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2298,8 +2298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11255400" y="2877840"/>
-          <a:ext cx="18000" cy="666360"/>
+          <a:off x="11254680" y="2877840"/>
+          <a:ext cx="17280" cy="665640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2343,9 +2343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>354600</xdr:colOff>
+      <xdr:colOff>353880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2355,7 +2355,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9517680" y="2863800"/>
-          <a:ext cx="9360" cy="704160"/>
+          <a:ext cx="8640" cy="703440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2393,15 +2393,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>462600</xdr:colOff>
+      <xdr:colOff>461880</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>48960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>469080</xdr:colOff>
+      <xdr:colOff>467640</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2410,8 +2410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7800480" y="2875680"/>
-          <a:ext cx="6480" cy="752400"/>
+          <a:off x="7799760" y="2875680"/>
+          <a:ext cx="5760" cy="751680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2455,9 +2455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>531720</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2467,7 +2467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6020640" y="2867400"/>
-          <a:ext cx="14400" cy="801000"/>
+          <a:ext cx="13680" cy="800280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2505,15 +2505,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>596520</xdr:colOff>
+      <xdr:colOff>595800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>611640</xdr:colOff>
+      <xdr:colOff>610200</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2522,8 +2522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4265280" y="2845800"/>
-          <a:ext cx="15120" cy="813240"/>
+          <a:off x="4264560" y="2845800"/>
+          <a:ext cx="14400" cy="812520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2561,15 +2561,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>111240</xdr:colOff>
+      <xdr:colOff>110520</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>51840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>121320</xdr:colOff>
+      <xdr:colOff>119880</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2578,8 +2578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2557080" y="2878560"/>
-          <a:ext cx="10080" cy="758880"/>
+          <a:off x="2556360" y="2878560"/>
+          <a:ext cx="9360" cy="758160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2623,9 +2623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>264240</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2635,7 +2635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="874080" y="2889000"/>
-          <a:ext cx="2160" cy="739080"/>
+          <a:ext cx="1440" cy="738360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2679,9 +2679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>68040</xdr:colOff>
+      <xdr:colOff>67320</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2691,7 +2691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15847560" y="5191560"/>
-          <a:ext cx="1342440" cy="2424960"/>
+          <a:ext cx="1341720" cy="2424240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2758,9 +2758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>505800</xdr:colOff>
+      <xdr:colOff>505080</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2770,7 +2770,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7117560" y="5165640"/>
-          <a:ext cx="1337760" cy="2738880"/>
+          <a:ext cx="1337040" cy="2738160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2933,9 +2933,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>408240</xdr:colOff>
+      <xdr:colOff>407520</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2945,7 +2945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8854560" y="5175000"/>
-          <a:ext cx="1337760" cy="2477160"/>
+          <a:ext cx="1337040" cy="2476440"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3012,9 +3012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>335160</xdr:colOff>
+      <xdr:colOff>334440</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3024,7 +3024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10615320" y="5148720"/>
-          <a:ext cx="1338120" cy="2503440"/>
+          <a:ext cx="1337400" cy="2502720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3155,9 +3155,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>177840</xdr:colOff>
+      <xdr:colOff>177120</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3167,7 +3167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12292560" y="5182200"/>
-          <a:ext cx="1338120" cy="2469960"/>
+          <a:ext cx="1337400" cy="2469240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3234,9 +3234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:colOff>162720</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3246,7 +3246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14112000" y="5167800"/>
-          <a:ext cx="1338840" cy="2448720"/>
+          <a:ext cx="1338120" cy="2448000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>312840</xdr:colOff>
+      <xdr:colOff>312120</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="197640" y="5151240"/>
-          <a:ext cx="1338120" cy="2500920"/>
+          <a:ext cx="1337400" cy="2500200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3584,9 +3584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>48600</xdr:colOff>
+      <xdr:colOff>47880</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3596,7 +3596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3598200" y="5172480"/>
-          <a:ext cx="1342440" cy="2467800"/>
+          <a:ext cx="1341720" cy="2467080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3663,9 +3663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>584640</xdr:colOff>
+      <xdr:colOff>583920</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3675,7 +3675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5346720" y="5158440"/>
-          <a:ext cx="1352880" cy="2505960"/>
+          <a:ext cx="1352160" cy="2505240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3806,9 +3806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
+      <xdr:colOff>190800</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3818,7 +3818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1911240" y="5172480"/>
-          <a:ext cx="1337760" cy="2467800"/>
+          <a:ext cx="1337040" cy="2467080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3949,9 +3949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>258480</xdr:colOff>
+      <xdr:colOff>258120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3961,7 +3961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="869040" y="4810680"/>
-          <a:ext cx="720" cy="336600"/>
+          <a:ext cx="360" cy="335880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3999,15 +3999,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>124920</xdr:colOff>
+      <xdr:colOff>124200</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>88560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>127080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4016,8 +4016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2570760" y="4820400"/>
-          <a:ext cx="3600" cy="348480"/>
+          <a:off x="2570040" y="4820400"/>
+          <a:ext cx="2880" cy="347760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4061,9 +4061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>3240</xdr:colOff>
+      <xdr:colOff>2520</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4073,7 +4073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4269600" y="4841640"/>
-          <a:ext cx="14040" cy="326880"/>
+          <a:ext cx="13320" cy="326160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4119,7 +4119,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>515520</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4129,7 +4129,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6018480" y="4851360"/>
-          <a:ext cx="360" cy="303120"/>
+          <a:ext cx="360" cy="302400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4173,9 +4173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>473040</xdr:colOff>
+      <xdr:colOff>472320</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4185,7 +4185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7788600" y="4810680"/>
-          <a:ext cx="22320" cy="350640"/>
+          <a:ext cx="21600" cy="349920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4223,15 +4223,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>340920</xdr:colOff>
+      <xdr:colOff>340200</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>344520</xdr:colOff>
+      <xdr:colOff>343080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4240,8 +4240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9513360" y="4751280"/>
-          <a:ext cx="3600" cy="419760"/>
+          <a:off x="9512640" y="4751280"/>
+          <a:ext cx="2880" cy="419040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4279,15 +4279,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>270360</xdr:colOff>
+      <xdr:colOff>268920</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>185400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>271080</xdr:colOff>
+      <xdr:colOff>269280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4296,8 +4296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11277360" y="4726800"/>
-          <a:ext cx="720" cy="417960"/>
+          <a:off x="11275920" y="4726800"/>
+          <a:ext cx="360" cy="417240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4341,9 +4341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>124560</xdr:colOff>
+      <xdr:colOff>123840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4353,7 +4353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12962880" y="4796640"/>
-          <a:ext cx="3240" cy="381600"/>
+          <a:ext cx="2520" cy="380880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4391,15 +4391,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>91800</xdr:colOff>
+      <xdr:colOff>91080</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>55080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>99720</xdr:colOff>
+      <xdr:colOff>98280</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4408,8 +4408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14767920" y="4786920"/>
-          <a:ext cx="7920" cy="376920"/>
+          <a:off x="14767200" y="4786920"/>
+          <a:ext cx="7200" cy="376200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4453,9 +4453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>14760</xdr:colOff>
+      <xdr:colOff>14040</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4465,7 +4465,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16522920" y="4655520"/>
-          <a:ext cx="2160" cy="532440"/>
+          <a:ext cx="1440" cy="531720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4934,9 +4934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>585720</xdr:colOff>
+      <xdr:colOff>585000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4946,7 +4946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9684720" y="218160"/>
-          <a:ext cx="3083760" cy="600840"/>
+          <a:ext cx="3083040" cy="600120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5025,9 +5025,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>606240</xdr:colOff>
+      <xdr:colOff>605520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>85680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5037,7 +5037,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="778320" y="1986120"/>
-          <a:ext cx="1615320" cy="729000"/>
+          <a:ext cx="1614600" cy="728280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5118,9 +5118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>579600</xdr:colOff>
+      <xdr:colOff>578880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5130,7 +5130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8647200" y="3079800"/>
-          <a:ext cx="5338440" cy="729360"/>
+          <a:ext cx="5337720" cy="728640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5195,9 +5195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>193680</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5207,7 +5207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7010640" y="6108120"/>
-          <a:ext cx="1697760" cy="2680920"/>
+          <a:ext cx="1697040" cy="2680200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5426,9 +5426,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>592920</xdr:colOff>
+      <xdr:colOff>592200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5438,7 +5438,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3031200" y="1961640"/>
-          <a:ext cx="1794960" cy="741600"/>
+          <a:ext cx="1794240" cy="740880"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5505,9 +5505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>577440</xdr:colOff>
+      <xdr:colOff>576720</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5517,7 +5517,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5462280" y="1985400"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5598,9 +5598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>589320</xdr:colOff>
+      <xdr:colOff>588600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5610,7 +5610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7920000" y="1985760"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5677,9 +5677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>573840</xdr:colOff>
+      <xdr:colOff>573120</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5689,7 +5689,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10350720" y="1997640"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5756,9 +5756,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>560520</xdr:colOff>
+      <xdr:colOff>559800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>136800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5768,7 +5768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12783240" y="2000880"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5835,9 +5835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>582840</xdr:colOff>
+      <xdr:colOff>582120</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5847,7 +5847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15251760" y="1997280"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5914,9 +5914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>556560</xdr:colOff>
+      <xdr:colOff>555840</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>68040</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5926,7 +5926,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17671320" y="1931400"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5993,9 +5993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
+      <xdr:colOff>570960</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>93240</xdr:rowOff>
+      <xdr:rowOff>92520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6005,7 +6005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20132640" y="1956600"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6491,9 +6491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>32760</xdr:colOff>
+      <xdr:colOff>32040</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>16920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6503,7 +6503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8586720" y="4510080"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6570,9 +6570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>336960</xdr:colOff>
+      <xdr:colOff>336240</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>150120</xdr:rowOff>
+      <xdr:rowOff>149400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6582,7 +6582,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13171320" y="4467240"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6649,9 +6649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>48960</xdr:colOff>
+      <xdr:colOff>48240</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>6840</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6665,7 +6665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7208640" y="8989200"/>
-          <a:ext cx="1354320" cy="656640"/>
+          <a:ext cx="1353600" cy="655920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6686,9 +6686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>320760</xdr:colOff>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6702,7 +6702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5952600" y="4365720"/>
-          <a:ext cx="2270520" cy="968400"/>
+          <a:ext cx="2269800" cy="967680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6890,9 +6890,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>384120</xdr:colOff>
+      <xdr:colOff>383400</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6902,7 +6902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10869120" y="6181560"/>
-          <a:ext cx="1697760" cy="2680920"/>
+          <a:ext cx="1697040" cy="2680200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7015,9 +7015,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>184680</xdr:colOff>
+      <xdr:colOff>183960</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7027,7 +7027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14338800" y="6245640"/>
-          <a:ext cx="1697760" cy="2680920"/>
+          <a:ext cx="1697040" cy="2680200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7126,9 +7126,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>387000</xdr:colOff>
+      <xdr:colOff>386280</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7142,7 +7142,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11038320" y="9113760"/>
-          <a:ext cx="1531440" cy="621000"/>
+          <a:ext cx="1530720" cy="620280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7163,9 +7163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>50760</xdr:colOff>
+      <xdr:colOff>50040</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>47520</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7179,7 +7179,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14430600" y="9160200"/>
-          <a:ext cx="1472040" cy="701640"/>
+          <a:ext cx="1471320" cy="700920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7451,9 +7451,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>37440</xdr:colOff>
+      <xdr:colOff>36720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7467,7 +7467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6297840" y="175320"/>
-          <a:ext cx="2864880" cy="953640"/>
+          <a:ext cx="2864160" cy="952920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7488,9 +7488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>437040</xdr:colOff>
+      <xdr:colOff>436320</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>84240</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7500,7 +7500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9517680" y="10648440"/>
-          <a:ext cx="4325400" cy="1002960"/>
+          <a:ext cx="4324680" cy="1002240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7651,9 +7651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>587520</xdr:colOff>
+      <xdr:colOff>586800</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>140040</xdr:rowOff>
+      <xdr:rowOff>139320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7663,7 +7663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7917840" y="12496680"/>
-          <a:ext cx="2406600" cy="963000"/>
+          <a:ext cx="2405880" cy="962280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7730,9 +7730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>522720</xdr:colOff>
+      <xdr:colOff>522000</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7742,7 +7742,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12794760" y="12479040"/>
-          <a:ext cx="2356920" cy="963000"/>
+          <a:ext cx="2356200" cy="962280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7809,9 +7809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7821,7 +7821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8134560" y="14388840"/>
-          <a:ext cx="1697760" cy="2903400"/>
+          <a:ext cx="1697040" cy="2902680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7984,9 +7984,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>437400</xdr:colOff>
+      <xdr:colOff>436680</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8000,7 +8000,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4210920" y="14687640"/>
-          <a:ext cx="3517200" cy="2300760"/>
+          <a:ext cx="3516480" cy="2300040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8021,9 +8021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>449640</xdr:colOff>
+      <xdr:colOff>448920</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8033,7 +8033,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10934640" y="14360400"/>
-          <a:ext cx="1697760" cy="2931840"/>
+          <a:ext cx="1697040" cy="2931120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8393,9 +8393,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>534600</xdr:colOff>
+      <xdr:colOff>533880</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8405,7 +8405,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13176000" y="14371920"/>
-          <a:ext cx="2599200" cy="3089880"/>
+          <a:ext cx="2598480" cy="3089160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8700,9 +8700,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>88560</xdr:colOff>
+      <xdr:colOff>87840</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8716,7 +8716,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15928200" y="14501160"/>
-          <a:ext cx="3069720" cy="1128600"/>
+          <a:ext cx="3069000" cy="1127880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8737,9 +8737,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>14760</xdr:colOff>
+      <xdr:colOff>14040</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>87120</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8753,7 +8753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15913080" y="15723000"/>
-          <a:ext cx="3011040" cy="1714680"/>
+          <a:ext cx="3010320" cy="1713960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8774,9 +8774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>377280</xdr:colOff>
+      <xdr:colOff>376560</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8790,7 +8790,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19123200" y="14605560"/>
-          <a:ext cx="1998000" cy="981720"/>
+          <a:ext cx="1997280" cy="981000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8811,9 +8811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>474120</xdr:colOff>
+      <xdr:colOff>473400</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8823,7 +8823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9721800" y="18211680"/>
-          <a:ext cx="3546720" cy="1130760"/>
+          <a:ext cx="3546000" cy="1130040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8904,9 +8904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>460440</xdr:colOff>
+      <xdr:colOff>459720</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8916,7 +8916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7887960" y="20107440"/>
-          <a:ext cx="1697760" cy="2903400"/>
+          <a:ext cx="1697040" cy="2902680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9143,9 +9143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>138960</xdr:colOff>
+      <xdr:colOff>138240</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9155,7 +9155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13070160" y="20011680"/>
-          <a:ext cx="1697760" cy="2903400"/>
+          <a:ext cx="1697040" cy="2902680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9222,9 +9222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>349920</xdr:colOff>
+      <xdr:colOff>349200</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9238,7 +9238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14904000" y="20251800"/>
-          <a:ext cx="1909440" cy="954720"/>
+          <a:ext cx="1908720" cy="954000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9259,9 +9259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>485280</xdr:colOff>
+      <xdr:colOff>484560</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9275,7 +9275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14904360" y="21389040"/>
-          <a:ext cx="1432800" cy="773280"/>
+          <a:ext cx="1432080" cy="772560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9296,9 +9296,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>147240</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9312,7 +9312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17036280" y="20266920"/>
-          <a:ext cx="2632680" cy="1423440"/>
+          <a:ext cx="2631960" cy="1422720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9500,9 +9500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>550080</xdr:colOff>
+      <xdr:colOff>549360</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9512,7 +9512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9737280" y="23963760"/>
-          <a:ext cx="3607200" cy="1162080"/>
+          <a:ext cx="3606480" cy="1161360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9579,9 +9579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>368640</xdr:colOff>
+      <xdr:colOff>367920</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9591,7 +9591,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8407800" y="26352720"/>
-          <a:ext cx="1697760" cy="2903400"/>
+          <a:ext cx="1697040" cy="2902680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9690,9 +9690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
+      <xdr:colOff>322560</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9702,7 +9702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10808280" y="26432640"/>
-          <a:ext cx="1697760" cy="2903400"/>
+          <a:ext cx="1697040" cy="2902680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9819,9 +9819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>475200</xdr:colOff>
+      <xdr:colOff>474480</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9831,7 +9831,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13406400" y="26480160"/>
-          <a:ext cx="1697760" cy="2903400"/>
+          <a:ext cx="1697040" cy="2902680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9898,9 +9898,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>68760</xdr:colOff>
+      <xdr:colOff>68040</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9914,7 +9914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15270840" y="26679600"/>
-          <a:ext cx="1872720" cy="963720"/>
+          <a:ext cx="1872000" cy="963000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10144,9 +10144,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>172440</xdr:colOff>
+      <xdr:colOff>171720</xdr:colOff>
       <xdr:row>176</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10156,7 +10156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18732600" y="29424240"/>
-          <a:ext cx="7687440" cy="1576080"/>
+          <a:ext cx="7686720" cy="1575360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10223,9 +10223,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>587160</xdr:colOff>
+      <xdr:colOff>586440</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10235,7 +10235,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7306560" y="32515560"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10302,9 +10302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>383760</xdr:colOff>
+      <xdr:colOff>383040</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>70920</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10314,7 +10314,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23002200" y="32780160"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10381,9 +10381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>572760</xdr:colOff>
+      <xdr:colOff>572040</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10393,7 +10393,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26248680" y="32668920"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10460,9 +10460,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212040</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10472,7 +10472,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34449840" y="32248080"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10580,9 +10580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
+      <xdr:colOff>6480</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10592,7 +10592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34176240"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10677,9 +10677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>572400</xdr:colOff>
+      <xdr:colOff>571680</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10689,7 +10689,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2399760" y="34176960"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10756,9 +10756,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10768,7 +10768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4815000" y="34160400"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10835,9 +10835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>49320</xdr:rowOff>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10847,7 +10847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7261200" y="34160400"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10914,9 +10914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>603000</xdr:colOff>
+      <xdr:colOff>602280</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10926,7 +10926,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12825720" y="34080120"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10993,9 +10993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:colOff>583560</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11005,7 +11005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17087760" y="34048080"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11072,9 +11072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>549000</xdr:colOff>
+      <xdr:colOff>548280</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11084,7 +11084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19498320" y="34002720"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11151,9 +11151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>374400</xdr:colOff>
+      <xdr:colOff>373680</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11163,7 +11163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23089680" y="35707680"/>
-          <a:ext cx="1697760" cy="2903400"/>
+          <a:ext cx="1697040" cy="2902680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11266,9 +11266,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>568080</xdr:colOff>
+      <xdr:colOff>567360</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11278,7 +11278,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26244000" y="33963840"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11345,9 +11345,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>509760</xdr:colOff>
+      <xdr:colOff>509040</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11357,7 +11357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="29854800" y="33919920"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11424,9 +11424,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>514800</xdr:colOff>
+      <xdr:colOff>514080</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11436,7 +11436,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="37197720" y="33995520"/>
-          <a:ext cx="1794600" cy="727920"/>
+          <a:ext cx="1793880" cy="727200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11503,9 +11503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>575280</xdr:colOff>
+      <xdr:colOff>574560</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11515,7 +11515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34812360" y="33942240"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11582,9 +11582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>525240</xdr:colOff>
+      <xdr:colOff>524520</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11594,7 +11594,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="32316120" y="33903000"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11996,9 +11996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>540360</xdr:colOff>
+      <xdr:colOff>539640</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12012,7 +12012,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5717160" y="32472720"/>
-          <a:ext cx="1502640" cy="660600"/>
+          <a:ext cx="1501920" cy="659880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12033,9 +12033,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>522000</xdr:colOff>
+      <xdr:colOff>521280</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>148680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12045,7 +12045,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="35641800"/>
-          <a:ext cx="1697760" cy="3505320"/>
+          <a:ext cx="1697040" cy="3504600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12112,9 +12112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>199440</xdr:colOff>
+      <xdr:colOff>198720</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>101520</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12124,7 +12124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2354400" y="35721720"/>
-          <a:ext cx="2078280" cy="3202200"/>
+          <a:ext cx="2077560" cy="3201480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12269,9 +12269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>92160</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12281,7 +12281,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4830840" y="35769600"/>
-          <a:ext cx="1940760" cy="3250080"/>
+          <a:ext cx="1940040" cy="3249360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12380,9 +12380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>392760</xdr:colOff>
+      <xdr:colOff>392040</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12396,7 +12396,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="32760" y="39210840"/>
-          <a:ext cx="1535760" cy="621360"/>
+          <a:ext cx="1535040" cy="620640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12417,9 +12417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>593640</xdr:colOff>
+      <xdr:colOff>592920</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12433,7 +12433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2402640" y="39099240"/>
-          <a:ext cx="1812960" cy="780840"/>
+          <a:ext cx="1812240" cy="780120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12454,9 +12454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>367560</xdr:colOff>
+      <xdr:colOff>366840</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12470,7 +12470,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4845600" y="39162960"/>
-          <a:ext cx="1589760" cy="777600"/>
+          <a:ext cx="1589040" cy="776880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12491,9 +12491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12503,7 +12503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7276680" y="35753760"/>
-          <a:ext cx="1903320" cy="3250080"/>
+          <a:ext cx="1902600" cy="3249360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12680,9 +12680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>540000</xdr:colOff>
+      <xdr:colOff>539280</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12692,7 +12692,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9705240" y="35845560"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12759,9 +12759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>580680</xdr:colOff>
+      <xdr:colOff>579960</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12771,7 +12771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12192120" y="35789760"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12838,9 +12838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>564480</xdr:colOff>
+      <xdr:colOff>563760</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12850,7 +12850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14621760" y="35731800"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13001,9 +13001,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
+      <xdr:colOff>187560</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13013,7 +13013,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9681480" y="36867600"/>
-          <a:ext cx="2078280" cy="3202200"/>
+          <a:ext cx="2077560" cy="3201480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13194,9 +13194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>280080</xdr:colOff>
+      <xdr:colOff>279360</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13206,7 +13206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12219120" y="36902520"/>
-          <a:ext cx="2078280" cy="3202200"/>
+          <a:ext cx="2077560" cy="3201480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13355,9 +13355,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>263160</xdr:colOff>
+      <xdr:colOff>262440</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13367,7 +13367,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14648400" y="36832320"/>
-          <a:ext cx="2078280" cy="3202200"/>
+          <a:ext cx="2077560" cy="3201480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13935,9 +13935,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>265320</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13947,7 +13947,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19543320" y="35727840"/>
-          <a:ext cx="2078280" cy="3202200"/>
+          <a:ext cx="2077560" cy="3201480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14092,9 +14092,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>599040</xdr:colOff>
+      <xdr:colOff>598320</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>165600</xdr:rowOff>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14104,7 +14104,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26371800" y="35710200"/>
-          <a:ext cx="1697760" cy="4154040"/>
+          <a:ext cx="1697040" cy="4153320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14240,21 +14240,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>5.Report Type(Internal marks, External Marks,Internal marks &amp;External Marks, Detailed Internal Marks, Detailed internal and External Marks</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>) all drop downs.</a:t>
+            <a:t>5.Report Type(Internal marks, External Marks,Internal marks &amp;External Marks, Detailed Internal Marks, Detailed internal and External Marks) all drop downs.</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -14317,9 +14303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>210240</xdr:colOff>
       <xdr:row>235</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14333,7 +14319,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26319240" y="40390920"/>
-          <a:ext cx="1973880" cy="992520"/>
+          <a:ext cx="1973160" cy="991800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14480,9 +14466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>200520</xdr:colOff>
+      <xdr:colOff>199800</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14492,7 +14478,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="29842560" y="35588160"/>
-          <a:ext cx="1497600" cy="3202200"/>
+          <a:ext cx="1496880" cy="3201480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14627,9 +14613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>268200</xdr:colOff>
+      <xdr:colOff>267480</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14639,7 +14625,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="32356080" y="35588160"/>
-          <a:ext cx="1497600" cy="3202200"/>
+          <a:ext cx="1496880" cy="3201480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14774,9 +14760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14786,7 +14772,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34822080" y="35560080"/>
-          <a:ext cx="1497600" cy="3202200"/>
+          <a:ext cx="1496880" cy="3201480"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14828,7 +14814,7 @@
             </a:rPr>
             <a:t>SAME LIKE FIRST MODULE</a:t>
           </a:r>
-          <a:endParaRPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -14853,9 +14839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>601200</xdr:colOff>
+      <xdr:colOff>600480</xdr:colOff>
       <xdr:row>205</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14865,7 +14851,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="37284120" y="35337240"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14932,9 +14918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>488520</xdr:colOff>
+      <xdr:colOff>487800</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14944,7 +14930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="37268280" y="36595080"/>
-          <a:ext cx="1697760" cy="4154040"/>
+          <a:ext cx="1697040" cy="4153320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15080,21 +15066,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>5.Report Type(Internal marks, External Marks,Internal marks &amp;External Marks, Detailed Internal Marks, Detailed internal and External Marks</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>) all drop downs.</a:t>
+            <a:t>5.Report Type(Internal marks, External Marks,Internal marks &amp;External Marks, Detailed Internal Marks, Detailed internal and External Marks) all drop downs.</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -15618,9 +15590,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
+      <xdr:colOff>81720</xdr:colOff>
       <xdr:row>244</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -15630,7 +15602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7887240" y="41805720"/>
-          <a:ext cx="3155040" cy="1212120"/>
+          <a:ext cx="3154320" cy="1211400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15780,9 +15752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>573120</xdr:colOff>
+      <xdr:colOff>572400</xdr:colOff>
       <xdr:row>256</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -15792,7 +15764,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3623400" y="44270640"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15859,9 +15831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -15871,7 +15843,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8560800" y="44191080"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15938,9 +15910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
+      <xdr:colOff>21240</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -15950,7 +15922,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14079240" y="44127360"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16143,9 +16115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>412560</xdr:colOff>
+      <xdr:colOff>411840</xdr:colOff>
       <xdr:row>271</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16159,7 +16131,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1391040" y="46584000"/>
-          <a:ext cx="2031840" cy="1030320"/>
+          <a:ext cx="2031120" cy="1029600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16180,9 +16152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>414720</xdr:colOff>
+      <xdr:colOff>414000</xdr:colOff>
       <xdr:row>280</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16192,7 +16164,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3561840" y="45704160"/>
-          <a:ext cx="1697760" cy="3505320"/>
+          <a:ext cx="1697040" cy="3504600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16301,9 +16273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>459720</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>278</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16313,7 +16285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8498880" y="45465120"/>
-          <a:ext cx="1697760" cy="3505320"/>
+          <a:ext cx="1697040" cy="3504600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16380,9 +16352,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>526680</xdr:colOff>
+      <xdr:colOff>525960</xdr:colOff>
       <xdr:row>272</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16396,7 +16368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6017040" y="46276920"/>
-          <a:ext cx="2412000" cy="1510920"/>
+          <a:ext cx="2411280" cy="1510200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16417,9 +16389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>520560</xdr:colOff>
+      <xdr:colOff>519840</xdr:colOff>
       <xdr:row>278</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16429,7 +16401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14063400" y="45449280"/>
-          <a:ext cx="1697760" cy="3505320"/>
+          <a:ext cx="1697040" cy="3504600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16580,9 +16552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>453600</xdr:colOff>
+      <xdr:colOff>452880</xdr:colOff>
       <xdr:row>270</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16596,7 +16568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11633040" y="46205280"/>
-          <a:ext cx="2226600" cy="1338120"/>
+          <a:ext cx="2225880" cy="1337400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16617,9 +16589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>572400</xdr:colOff>
+      <xdr:colOff>571680</xdr:colOff>
       <xdr:row>289</xdr:row>
-      <xdr:rowOff>76320</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16629,7 +16601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8514720" y="50051160"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16696,9 +16668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>587880</xdr:colOff>
+      <xdr:colOff>587160</xdr:colOff>
       <xdr:row>298</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16708,7 +16680,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8530200" y="51643440"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16775,9 +16747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>61560</xdr:colOff>
+      <xdr:colOff>60840</xdr:colOff>
       <xdr:row>326</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16791,7 +16763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8514360" y="52551000"/>
-          <a:ext cx="4953240" cy="4772160"/>
+          <a:ext cx="4952520" cy="4771440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16812,9 +16784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>526680</xdr:colOff>
+      <xdr:colOff>525960</xdr:colOff>
       <xdr:row>334</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16824,7 +16796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8469000" y="57902040"/>
-          <a:ext cx="1794600" cy="765360"/>
+          <a:ext cx="1793880" cy="764640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16866,6 +16838,140 @@
             </a:rPr>
             <a:t>Student Records</a:t>
           </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>229320</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>116640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>314280</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="240" name="Image 23" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId23"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19138680" y="116640"/>
+          <a:ext cx="1919520" cy="980280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>107640</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>66960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="241" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17182440" y="254880"/>
+          <a:ext cx="1793880" cy="764640"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Online Poll</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -16889,26 +16995,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>407520</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>560160</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="240" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4064400" y="171720"/>
-          <a:ext cx="3810960" cy="825120"/>
+      <xdr:rowOff>121320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>154440</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="242" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076280" y="121320"/>
+          <a:ext cx="2804400" cy="824400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16946,7 +17052,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>INVENTORY</a:t>
+            <a:t>PURCHASE</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -16966,26 +17072,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175320</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>203760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>574560</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="241" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1626480" y="1639440"/>
-          <a:ext cx="1386360" cy="767520"/>
+      <xdr:colOff>547560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>130320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="243" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="786600" y="1801800"/>
+          <a:ext cx="983880" cy="766800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17025,7 +17131,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>ITEMS</a:t>
+            <a:t>PURCHASE ORDER</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -17045,26 +17151,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>189000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>106200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>680400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="242" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4169880" y="1652400"/>
-          <a:ext cx="1387080" cy="766800"/>
+      <xdr:colOff>561240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>129960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="244" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2634840" y="1801440"/>
+          <a:ext cx="983880" cy="766800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17104,7 +17210,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>PACKS</a:t>
+            <a:t>GOODS RECEIPT</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -17124,26 +17230,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>162360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>132120</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>706320</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>191880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="243" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6634440" y="1681200"/>
-          <a:ext cx="1387080" cy="766800"/>
+      <xdr:colOff>534960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="245" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4442760" y="1788120"/>
+          <a:ext cx="984240" cy="766800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17183,7 +17289,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>COMBOS</a:t>
+            <a:t>PURCHASE INVOICE</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -17203,26 +17309,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>188280</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>92880</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>666360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="244" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9033480" y="1668600"/>
-          <a:ext cx="1386360" cy="766800"/>
+      <xdr:colOff>561960</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="246" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6303240" y="1788120"/>
+          <a:ext cx="984960" cy="766800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17262,7 +17368,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>ITEM ATTRIBUTES</a:t>
+            <a:t>STOCK TRANSFER</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -17282,26 +17388,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>263160</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>583920</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="245" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1888560" y="2871720"/>
-          <a:ext cx="1133640" cy="2682720"/>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>136440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>574920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="247" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7949880" y="1761840"/>
+          <a:ext cx="1185840" cy="810720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17330,84 +17436,20 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1. Click on Add New Item </a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2. Fill in the necessary details .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>3. click on Save Item</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>VENDOR PAYMENTS</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -17425,26 +17467,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>263520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>585000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>16560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="246" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4327200" y="2871360"/>
-          <a:ext cx="1134360" cy="2682720"/>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>136440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>574920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>134280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="248" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9784800" y="1761840"/>
+          <a:ext cx="1185480" cy="810720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17473,84 +17515,20 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1. Click on Add Packs</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2. Fill in the necessary details .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>3. click on Save Pack.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>PURCHASE RETURN</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -17568,26 +17546,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>341640</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>663120</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>195480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="247" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6843960" y="2846880"/>
-          <a:ext cx="1134360" cy="2681280"/>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13320</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>595440</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>117720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="249" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624600" y="3047760"/>
+          <a:ext cx="1193760" cy="2759400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17627,7 +17605,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>1. Click on Add Combo</a:t>
+            <a:t>1. Click on Add PO </a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -17659,7 +17637,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>2. Fill in the necessary details .</a:t>
+            <a:t>2.Click on Add New Item</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -17691,7 +17669,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>3. click on Save Combo..</a:t>
+            <a:t>3. Fill in the necessary details .</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -17705,32 +17683,96 @@
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>4. click on Save .</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>5.Click on Save Purchase Order.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>289440</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>610200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="248" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9230040" y="2871720"/>
-          <a:ext cx="1133640" cy="2682720"/>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>148680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>595440</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="250" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2446920" y="3074760"/>
+          <a:ext cx="1206000" cy="2759400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17770,7 +17812,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>1. Click on Add New Attribute</a:t>
+            <a:t>1. Click on Add GR</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -17834,7 +17876,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>3. click on Save.</a:t>
+            <a:t>3. click on Save Goods Receipt</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -17852,28 +17894,664 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>557640</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="251" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4293000" y="3102480"/>
+          <a:ext cx="1156680" cy="2731680"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1. Click on Add PI</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2. Fill in the necessary details .</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3. click on Save Purchase .</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>12600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>585000</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>93600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="252" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6127560" y="3102480"/>
+          <a:ext cx="1183680" cy="2680560"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1. Click on  Add Stock Transfer</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2.Click on Add New item.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3. Fill in the necessary details .</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>4. click on Save </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>5. click on OK</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558360</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="253" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7974720" y="3089160"/>
+          <a:ext cx="1144440" cy="2680560"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1. Click on Add Vendor Payment.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2. Fill in the necessary details .</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3. click on Save .</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>597240</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>80280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="254" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9796680" y="3089160"/>
+          <a:ext cx="1195920" cy="2680560"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1. Click on Add Purchase Return</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2. Fill in the necessary details .</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3. click on Save Purchase Return</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>773280</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>209520</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>166680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="249" name="Line 1"/>
+      <xdr:colOff>161640</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>200880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="255" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2398680" y="999720"/>
-          <a:ext cx="3500280" cy="602640"/>
+          <a:off x="1384560" y="948240"/>
+          <a:ext cx="4319640" cy="866880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -17897,25 +18575,25 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>773640</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>327600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="250" name="Line 1"/>
+      <xdr:rowOff>149400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>118080</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="256" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4837320" y="1025640"/>
-          <a:ext cx="1179720" cy="627840"/>
+          <a:off x="3245400" y="961920"/>
+          <a:ext cx="2376000" cy="826200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -17938,26 +18616,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>406440</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>174600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>25920</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="251" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6095880" y="1025640"/>
-          <a:ext cx="1245240" cy="666360"/>
+      <xdr:colOff>209880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="257" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5066640" y="948240"/>
+          <a:ext cx="646560" cy="853560"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -17980,26 +18658,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>471960</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>65520</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="252" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6161400" y="999720"/>
-          <a:ext cx="3657600" cy="679680"/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>275400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200880</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="258" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778720" y="975240"/>
+          <a:ext cx="1148400" cy="839880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -18022,26 +18700,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>799920</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>799920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="253" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2425320" y="2409840"/>
-          <a:ext cx="0" cy="487080"/>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>432720</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>149400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>26640</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>108360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="259" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5936040" y="961920"/>
+          <a:ext cx="2651400" cy="771840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -18064,26 +18742,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>786960</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>166680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>786960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="254" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4850640" y="2422800"/>
-          <a:ext cx="0" cy="461520"/>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>135720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>26280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="260" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6145560" y="948240"/>
+          <a:ext cx="4276080" cy="799200"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -18106,26 +18784,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>799920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>799920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="255" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7302240" y="2486880"/>
-          <a:ext cx="0" cy="397440"/>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>187920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>187920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="261" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1410840" y="2587320"/>
+          <a:ext cx="0" cy="487800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -18148,26 +18826,194 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>174600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>174600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="262" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3232080" y="2587320"/>
+          <a:ext cx="0" cy="514800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>27000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="263" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4892040" y="2587320"/>
+          <a:ext cx="0" cy="528120"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>799920</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:colOff>187560</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>799920</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>12960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="256" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9740520" y="2461320"/>
-          <a:ext cx="0" cy="423000"/>
+      <xdr:colOff>187560</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="264" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6913800" y="2560320"/>
+          <a:ext cx="0" cy="568800"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>187920</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>135360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>187920</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="265" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8748720" y="2573640"/>
+          <a:ext cx="0" cy="501480"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+          <a:tailEnd len="med" type="triangle" w="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>174600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>122040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>174600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="266" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10569960" y="2560320"/>
+          <a:ext cx="0" cy="541800"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -18195,26 +19041,26 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>174600</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>155160</xdr:colOff>
+      <xdr:rowOff>135360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>534240</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="257" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4076280" y="121320"/>
-          <a:ext cx="2805120" cy="825120"/>
+      <xdr:rowOff>147240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="267" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3232080" y="135360"/>
+          <a:ext cx="2805480" cy="824400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18252,7 +19098,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>PURCHASE</a:t>
+            <a:t>SALES</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -18272,26 +19118,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>175320</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>548280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="258" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="786600" y="1801800"/>
-          <a:ext cx="984600" cy="767520"/>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>188280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>144720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="268" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2022480" y="1653480"/>
+          <a:ext cx="984600" cy="766800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18331,7 +19177,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>PURCHASE ORDER</a:t>
+            <a:t>SALES ORDER</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -18351,26 +19197,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>13320</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>561960</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>525240</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>50760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>222120</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="259" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2634840" y="1801440"/>
-          <a:ext cx="984600" cy="767520"/>
+        <xdr:cNvPr id="269" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4194000" y="1676160"/>
+          <a:ext cx="1531440" cy="730080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18410,7 +19256,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>GOODS RECEIPT</a:t>
+            <a:t>SALESMAN COMMISSION</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -18430,26 +19276,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>535680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="260" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4442760" y="1788120"/>
-          <a:ext cx="984960" cy="767520"/>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>423720</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>83880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>110160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="270" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6538680" y="1628280"/>
+          <a:ext cx="1494720" cy="757440"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18489,7 +19335,7 @@
               </a:uFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>PURCHASE INVOICE</a:t>
+            <a:t>TRANSACTION ATTRIBUTE</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:solidFill>
@@ -18510,25 +19356,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>562680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="261" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6303240" y="1788120"/>
-          <a:ext cx="985680" cy="767520"/>
+      <xdr:colOff>600480</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>596520</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>96120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="271" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6715440" y="2940840"/>
+          <a:ext cx="1218960" cy="2682000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18557,20 +19403,84 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>STOCK TRANSFER</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1. Click on Add New Attribute</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2. Fill in the necessary details .</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3. click on Save.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -18588,26 +19498,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>575640</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="262" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7949880" y="1761840"/>
-          <a:ext cx="1186560" cy="811440"/>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>158400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>583200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>154800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="272" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4280760" y="2921760"/>
+          <a:ext cx="1194480" cy="2759760"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18636,20 +19546,116 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>VENDOR PAYMENTS</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1.Click on Add </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>Commission</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2. Fill in the necessary details .</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>3. click on Save.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -18667,26 +19673,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>575640</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="263" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9784800" y="1761840"/>
-          <a:ext cx="1186200" cy="811440"/>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>13680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>559080</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="273" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847880" y="2939760"/>
+          <a:ext cx="1157040" cy="2682000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18715,20 +19721,52 @@
             </a:lnSpc>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>PURCHASE RETURN</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>1.Perform sales operation in store front .</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:uFill>
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+            </a:uFill>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:uFill>
+                <a:solidFill>
+                  <a:srgbClr val="ffffff"/>
+                </a:solidFill>
+              </a:uFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>2.verify Sales Order in Back Office</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
@@ -18744,1014 +19782,28 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>13320</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>596160</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="264" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="624600" y="3047760"/>
-          <a:ext cx="1194480" cy="2760120"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1. Click on Add PO </a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2.Click on Add New Item</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>3. Fill in the necessary details .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>4. click on Save .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>5.Click on Save Purchase Order.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>596160</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="265" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2446920" y="3074760"/>
-          <a:ext cx="1206720" cy="2760120"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1. Click on Add GR</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2. Fill in the necessary details .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>3. click on Save Goods Receipt</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
+      <xdr:colOff>161280</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>12600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>558360</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="266" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4293000" y="3102480"/>
-          <a:ext cx="1157400" cy="2732400"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1. Click on Add PI</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2. Fill in the necessary details .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>3. click on Save Purchase .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>12600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>14040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>585720</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="267" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6127560" y="3102480"/>
-          <a:ext cx="1184400" cy="2681280"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1. Click on  Add Stock Transfer</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2.Click on Add New item.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>3. Fill in the necessary details .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>4. click on Save </a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>5. click on OK</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>25200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>559080</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="268" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7974720" y="3089160"/>
-          <a:ext cx="1145160" cy="2681280"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1. Click on Add Vendor Payment.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2. Fill in the necessary details .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>3. click on Save .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>12600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>597960</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="269" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9796680" y="3089160"/>
-          <a:ext cx="1196640" cy="2681280"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1. Click on Add Purchase Return</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2. Fill in the necessary details .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>3. click on Save Purchase Return</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>161640</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="270" name="Line 1"/>
+      <xdr:colOff>327600</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>40680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="274" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1384560" y="948240"/>
-          <a:ext cx="4319640" cy="866880"/>
+          <a:off x="2607120" y="975240"/>
+          <a:ext cx="2000880" cy="690840"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -19774,26 +19826,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>118080</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>13680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>393120</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="271" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3245400" y="961920"/>
-          <a:ext cx="2376000" cy="826200"/>
+      <xdr:rowOff>40680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="275" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4673520" y="988920"/>
+          <a:ext cx="0" cy="677160"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -19816,26 +19868,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>174600</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>484920</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209880</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="272" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5066640" y="948240"/>
-          <a:ext cx="646560" cy="853560"/>
+      <xdr:rowOff>149400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25200</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>12600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="276" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4765320" y="961920"/>
+          <a:ext cx="2597760" cy="676080"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -19858,26 +19910,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>275400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>149040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="273" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5778720" y="975240"/>
-          <a:ext cx="1148400" cy="839880"/>
+        <xdr:cNvPr id="277" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2445840" y="2424600"/>
+          <a:ext cx="0" cy="528480"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -19900,26 +19952,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>432720</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="274" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5936040" y="961920"/>
-          <a:ext cx="2651400" cy="771840"/>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>599040</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>137880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>599040</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>50040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="278" name="Line 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4879440" y="2413440"/>
+          <a:ext cx="0" cy="562680"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -19942,1258 +19994,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>26280</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="275" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6145560" y="948240"/>
-          <a:ext cx="4276080" cy="799200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="276" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1410840" y="2587320"/>
-          <a:ext cx="0" cy="487800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>174600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>174600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="277" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3232080" y="2587320"/>
-          <a:ext cx="0" cy="514800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="278" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4892040" y="2587320"/>
-          <a:ext cx="0" cy="528120"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="279" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6913800" y="2560320"/>
-          <a:ext cx="0" cy="568800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="280" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8748720" y="2573640"/>
-          <a:ext cx="0" cy="501480"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>174600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>174600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="281" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10569960" y="2560320"/>
-          <a:ext cx="0" cy="541800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>174600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>534960</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="282" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3232080" y="135360"/>
-          <a:ext cx="2806200" cy="825120"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>SALES</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="2400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>561960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="283" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2022480" y="1653480"/>
-          <a:ext cx="985320" cy="767520"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>SALES ORDER</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>525240</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>222840</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="284" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4194000" y="1676160"/>
-          <a:ext cx="1532160" cy="730800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>SALESMAN COMMISSION</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>423720</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>84600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="285" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6538680" y="1628280"/>
-          <a:ext cx="1495440" cy="758160"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>TRANSACTION ATTRIBUTE</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600480</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="286" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6715440" y="2940840"/>
-          <a:ext cx="1219680" cy="2682720"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1. Click on Add New Attribute</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2. Fill in the necessary details .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>3. click on Save.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>583920</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="287" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4280760" y="2921760"/>
-          <a:ext cx="1195200" cy="2760480"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1.Click on Add </a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>Commission</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2. Fill in the necessary details .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>3. click on Save.</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>559800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>95760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="288" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1847880" y="2939760"/>
-          <a:ext cx="1157760" cy="2682720"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16667"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="729fcf"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr"/>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>1.Perform sales operation in store front .</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:uFill>
-                <a:solidFill>
-                  <a:srgbClr val="ffffff"/>
-                </a:solidFill>
-              </a:uFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>2.verify Sales Order in Back Office</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:uFill>
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-            </a:uFill>
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>327600</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="289" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="2607120" y="975240"/>
-          <a:ext cx="2000880" cy="690840"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>393120</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>393120</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="290" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4673520" y="988920"/>
-          <a:ext cx="0" cy="677160"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>484920</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>25200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="291" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4765320" y="961920"/>
-          <a:ext cx="2597760" cy="676080"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="292" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2445840" y="2424600"/>
-          <a:ext cx="0" cy="528480"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>599040</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>599040</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="293" name="Line 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4879440" y="2413440"/>
-          <a:ext cx="0" cy="562680"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>12600</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -21207,7 +20007,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="294" name="Line 1"/>
+        <xdr:cNvPr id="279" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -21306,8 +20106,8 @@
   </sheetPr>
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB38" activeCellId="0" sqref="AB38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21362,7 +20162,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P25" activeCellId="0" sqref="P25"/>
+      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21377,7 +20177,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Cosmicode Data/Lead Flow.xlsx
+++ b/Cosmicode Data/Lead Flow.xlsx
@@ -482,9 +482,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>570960</xdr:colOff>
+      <xdr:colOff>570600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -494,7 +494,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7091280" y="169200"/>
-          <a:ext cx="4486680" cy="904680"/>
+          <a:ext cx="4486320" cy="904320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -559,9 +559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>343080</xdr:colOff>
+      <xdr:colOff>342720</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -571,7 +571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="188280" y="2116800"/>
-          <a:ext cx="1377720" cy="767520"/>
+          <a:ext cx="1377360" cy="767160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -638,9 +638,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>191160</xdr:colOff>
+      <xdr:colOff>190800</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -650,7 +650,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1868760" y="2106360"/>
-          <a:ext cx="1379880" cy="767520"/>
+          <a:ext cx="1379520" cy="767160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -717,9 +717,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>68400</xdr:colOff>
+      <xdr:colOff>68040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>14400</xdr:rowOff>
+      <xdr:rowOff>14040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -729,7 +729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3575880" y="2073600"/>
-          <a:ext cx="1384560" cy="767520"/>
+          <a:ext cx="1384200" cy="767160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -796,9 +796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>5040</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -808,7 +808,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5346360" y="2095200"/>
-          <a:ext cx="1384920" cy="767520"/>
+          <a:ext cx="1384560" cy="767160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -875,9 +875,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>542160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -887,7 +887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7112160" y="2103480"/>
-          <a:ext cx="1379880" cy="767520"/>
+          <a:ext cx="1379520" cy="767160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -954,9 +954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>435240</xdr:colOff>
+      <xdr:colOff>434880</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -966,7 +966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8839440" y="2091600"/>
-          <a:ext cx="1379880" cy="767520"/>
+          <a:ext cx="1379520" cy="767160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1033,9 +1033,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
+      <xdr:colOff>325080</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>46080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1045,7 +1045,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10570320" y="2105640"/>
-          <a:ext cx="1373400" cy="767520"/>
+          <a:ext cx="1373040" cy="767160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1112,9 +1112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>208800</xdr:colOff>
+      <xdr:colOff>208440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1124,7 +1124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12288240" y="2095560"/>
-          <a:ext cx="1373400" cy="767520"/>
+          <a:ext cx="1373040" cy="767160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1191,9 +1191,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1203,7 +1203,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14075640" y="2091960"/>
-          <a:ext cx="1374120" cy="767520"/>
+          <a:ext cx="1373760" cy="767160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1270,9 +1270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1282,7 +1282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15804720" y="2098800"/>
-          <a:ext cx="1384560" cy="767520"/>
+          <a:ext cx="1384200" cy="767160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1349,9 +1349,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>91080</xdr:colOff>
+      <xdr:colOff>90720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1361,7 +1361,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15835680" y="3548160"/>
-          <a:ext cx="1377360" cy="1102680"/>
+          <a:ext cx="1377000" cy="1102320"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1420,15 +1420,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>592560</xdr:colOff>
+      <xdr:colOff>591840</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>44280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1437,8 +1437,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="16491600" y="2871000"/>
-          <a:ext cx="28080" cy="672480"/>
+          <a:off x="16490880" y="2871000"/>
+          <a:ext cx="27720" cy="672120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1482,9 +1482,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>150840</xdr:colOff>
+      <xdr:colOff>150480</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1494,7 +1494,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14100120" y="3608280"/>
-          <a:ext cx="1338120" cy="1173960"/>
+          <a:ext cx="1337760" cy="1173600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1559,9 +1559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>247680</xdr:colOff>
+      <xdr:colOff>247320</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>59760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1571,7 +1571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12299760" y="3618000"/>
-          <a:ext cx="1400760" cy="1173960"/>
+          <a:ext cx="1400400" cy="1173600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1636,9 +1636,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>329400</xdr:colOff>
+      <xdr:colOff>329040</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1648,7 +1648,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10610280" y="3548160"/>
-          <a:ext cx="1337400" cy="1173960"/>
+          <a:ext cx="1337040" cy="1173600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1713,9 +1713,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>521280</xdr:colOff>
+      <xdr:colOff>520920</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1725,7 +1725,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8847360" y="3571920"/>
-          <a:ext cx="1458000" cy="1174680"/>
+          <a:ext cx="1457640" cy="1174320"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1790,9 +1790,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1802,7 +1802,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7143840" y="3632040"/>
-          <a:ext cx="1337040" cy="1173960"/>
+          <a:ext cx="1336680" cy="1173600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1867,9 +1867,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>421560</xdr:colOff>
+      <xdr:colOff>421200</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1879,7 +1879,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="202320" y="3632040"/>
-          <a:ext cx="1442160" cy="1173960"/>
+          <a:ext cx="1441800" cy="1173600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1944,9 +1944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>183600</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:rowOff>83520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1956,7 +1956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1904040" y="3641760"/>
-          <a:ext cx="1337040" cy="1173960"/>
+          <a:ext cx="1336680" cy="1173600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2021,9 +2021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>61920</xdr:colOff>
+      <xdr:colOff>61560</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2033,7 +2033,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3612240" y="3663000"/>
-          <a:ext cx="1341720" cy="1173960"/>
+          <a:ext cx="1341360" cy="1173600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2098,9 +2098,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
+      <xdr:colOff>571320</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2110,7 +2110,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5349240" y="3672720"/>
-          <a:ext cx="1337400" cy="1173960"/>
+          <a:ext cx="1337040" cy="1173600"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2169,15 +2169,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>83160</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>37440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>86040</xdr:colOff>
+      <xdr:colOff>84960</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>14760</xdr:rowOff>
+      <xdr:rowOff>14400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2186,8 +2186,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14760000" y="2864160"/>
-          <a:ext cx="2160" cy="739440"/>
+          <a:off x="14759280" y="2864160"/>
+          <a:ext cx="1800" cy="739080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2231,9 +2231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>130680</xdr:colOff>
+      <xdr:colOff>130320</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2243,7 +2243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12970080" y="2868120"/>
-          <a:ext cx="2160" cy="745200"/>
+          <a:ext cx="1800" cy="744840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2281,15 +2281,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>247680</xdr:colOff>
+      <xdr:colOff>246960</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>51120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2298,8 +2298,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11254680" y="2877840"/>
-          <a:ext cx="17280" cy="665640"/>
+          <a:off x="11253960" y="2877840"/>
+          <a:ext cx="16920" cy="665280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2343,9 +2343,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>353880</xdr:colOff>
+      <xdr:colOff>353520</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2355,7 +2355,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9517680" y="2863800"/>
-          <a:ext cx="8640" cy="703440"/>
+          <a:ext cx="8280" cy="703080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2393,15 +2393,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>461880</xdr:colOff>
+      <xdr:colOff>461160</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>48960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>467640</xdr:colOff>
+      <xdr:colOff>466560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2410,8 +2410,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7799760" y="2875680"/>
-          <a:ext cx="5760" cy="751680"/>
+          <a:off x="7799040" y="2875680"/>
+          <a:ext cx="5400" cy="751320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2455,9 +2455,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>531000</xdr:colOff>
+      <xdr:colOff>530640</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2467,7 +2467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6020640" y="2867400"/>
-          <a:ext cx="13680" cy="800280"/>
+          <a:ext cx="13320" cy="799920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2505,15 +2505,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>595800</xdr:colOff>
+      <xdr:colOff>595080</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>610200</xdr:colOff>
+      <xdr:colOff>609120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2522,8 +2522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="4264560" y="2845800"/>
-          <a:ext cx="14400" cy="812520"/>
+          <a:off x="4263840" y="2845800"/>
+          <a:ext cx="14040" cy="812160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2561,15 +2561,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>110520</xdr:colOff>
+      <xdr:colOff>109800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>51840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>119880</xdr:colOff>
+      <xdr:colOff>118800</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2578,8 +2578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2556360" y="2878560"/>
-          <a:ext cx="9360" cy="758160"/>
+          <a:off x="2555640" y="2878560"/>
+          <a:ext cx="9000" cy="757800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2623,9 +2623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2635,7 +2635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="874080" y="2889000"/>
-          <a:ext cx="1440" cy="738360"/>
+          <a:ext cx="1080" cy="738000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2679,9 +2679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2691,7 +2691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15847560" y="5191560"/>
-          <a:ext cx="1341720" cy="2424240"/>
+          <a:ext cx="1341360" cy="2423880"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2758,9 +2758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>505080</xdr:colOff>
+      <xdr:colOff>504720</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2770,7 +2770,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7117560" y="5165640"/>
-          <a:ext cx="1337040" cy="2738160"/>
+          <a:ext cx="1336680" cy="2737800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2933,9 +2933,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>407160</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2945,7 +2945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8854560" y="5175000"/>
-          <a:ext cx="1337040" cy="2476440"/>
+          <a:ext cx="1336680" cy="2476080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3012,9 +3012,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>334440</xdr:colOff>
+      <xdr:colOff>334080</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3024,7 +3024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10615320" y="5148720"/>
-          <a:ext cx="1337400" cy="2502720"/>
+          <a:ext cx="1337040" cy="2502360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3155,9 +3155,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>177120</xdr:colOff>
+      <xdr:colOff>176760</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3167,7 +3167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12292560" y="5182200"/>
-          <a:ext cx="1337400" cy="2469240"/>
+          <a:ext cx="1337040" cy="2468880"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3234,9 +3234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>162720</xdr:colOff>
+      <xdr:colOff>162360</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3246,7 +3246,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14112000" y="5167800"/>
-          <a:ext cx="1338120" cy="2448000"/>
+          <a:ext cx="1337760" cy="2447640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3409,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>312120</xdr:colOff>
+      <xdr:colOff>311760</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="197640" y="5151240"/>
-          <a:ext cx="1337400" cy="2500200"/>
+          <a:ext cx="1337040" cy="2499840"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3584,9 +3584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>47880</xdr:colOff>
+      <xdr:colOff>47520</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3596,7 +3596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3598200" y="5172480"/>
-          <a:ext cx="1341720" cy="2467080"/>
+          <a:ext cx="1341360" cy="2466720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3663,9 +3663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>583920</xdr:colOff>
+      <xdr:colOff>583560</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3675,7 +3675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5346720" y="5158440"/>
-          <a:ext cx="1352160" cy="2505240"/>
+          <a:ext cx="1351800" cy="2504880"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3806,9 +3806,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>190800</xdr:colOff>
+      <xdr:colOff>190440</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3818,7 +3818,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1911240" y="5172480"/>
-          <a:ext cx="1337040" cy="2467080"/>
+          <a:ext cx="1336680" cy="2466720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3951,7 +3951,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>258120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3961,7 +3961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="869040" y="4810680"/>
-          <a:ext cx="360" cy="335880"/>
+          <a:ext cx="360" cy="335520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3999,15 +3999,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>124200</xdr:colOff>
+      <xdr:colOff>123480</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>88560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>127080</xdr:colOff>
+      <xdr:colOff>126000</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4016,8 +4016,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2570040" y="4820400"/>
-          <a:ext cx="2880" cy="347760"/>
+          <a:off x="2569320" y="4820400"/>
+          <a:ext cx="2520" cy="347400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4061,9 +4061,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2520</xdr:colOff>
+      <xdr:colOff>2160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4073,7 +4073,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4269600" y="4841640"/>
-          <a:ext cx="13320" cy="326160"/>
+          <a:ext cx="12960" cy="325800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4119,7 +4119,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>515520</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4129,7 +4129,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6018480" y="4851360"/>
-          <a:ext cx="360" cy="302400"/>
+          <a:ext cx="360" cy="302040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4173,9 +4173,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>472320</xdr:colOff>
+      <xdr:colOff>471960</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
+      <xdr:rowOff>47520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4185,7 +4185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7788600" y="4810680"/>
-          <a:ext cx="21600" cy="349920"/>
+          <a:ext cx="21240" cy="349560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4223,15 +4223,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>340200</xdr:colOff>
+      <xdr:colOff>339480</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>19440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>343080</xdr:colOff>
+      <xdr:colOff>342000</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4240,8 +4240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9512640" y="4751280"/>
-          <a:ext cx="2880" cy="419040"/>
+          <a:off x="9511920" y="4751280"/>
+          <a:ext cx="2520" cy="418680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4279,15 +4279,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>268920</xdr:colOff>
+      <xdr:colOff>268200</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>185400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>269280</xdr:colOff>
+      <xdr:colOff>268560</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4296,8 +4296,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11275920" y="4726800"/>
-          <a:ext cx="360" cy="417240"/>
+          <a:off x="11275200" y="4726800"/>
+          <a:ext cx="360" cy="416880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4341,9 +4341,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>123840</xdr:colOff>
+      <xdr:colOff>123480</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4353,7 +4353,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12962880" y="4796640"/>
-          <a:ext cx="2520" cy="380880"/>
+          <a:ext cx="2160" cy="380520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4391,15 +4391,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>91080</xdr:colOff>
+      <xdr:colOff>90360</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>55080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>98280</xdr:colOff>
+      <xdr:colOff>97200</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4408,8 +4408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="14767200" y="4786920"/>
-          <a:ext cx="7200" cy="376200"/>
+          <a:off x="14766480" y="4786920"/>
+          <a:ext cx="6840" cy="375840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4453,9 +4453,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>14040</xdr:colOff>
+      <xdr:colOff>13680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4465,7 +4465,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16522920" y="4655520"/>
-          <a:ext cx="1440" cy="531720"/>
+          <a:ext cx="1080" cy="531360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4934,9 +4934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>585000</xdr:colOff>
+      <xdr:colOff>584640</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4946,7 +4946,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9684720" y="218160"/>
-          <a:ext cx="3083040" cy="600120"/>
+          <a:ext cx="3082680" cy="599760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5025,9 +5025,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>605520</xdr:colOff>
+      <xdr:colOff>605160</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5037,7 +5037,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="778320" y="1986120"/>
-          <a:ext cx="1614600" cy="728280"/>
+          <a:ext cx="1614240" cy="727920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5118,9 +5118,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>578880</xdr:colOff>
+      <xdr:colOff>578520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5130,7 +5130,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8647200" y="3079800"/>
-          <a:ext cx="5337720" cy="728640"/>
+          <a:ext cx="5337360" cy="728280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5195,9 +5195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>193680</xdr:colOff>
+      <xdr:colOff>193320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5207,7 +5207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7010640" y="6108120"/>
-          <a:ext cx="1697040" cy="2680200"/>
+          <a:ext cx="1696680" cy="2679840"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5426,9 +5426,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>592200</xdr:colOff>
+      <xdr:colOff>591840</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5438,7 +5438,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3031200" y="1961640"/>
-          <a:ext cx="1794240" cy="740880"/>
+          <a:ext cx="1793880" cy="740520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5505,9 +5505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>576720</xdr:colOff>
+      <xdr:colOff>576360</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5517,7 +5517,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5462280" y="1985400"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5598,9 +5598,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>588600</xdr:colOff>
+      <xdr:colOff>588240</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5610,7 +5610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7920000" y="1985760"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5677,9 +5677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>573120</xdr:colOff>
+      <xdr:colOff>572760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5689,7 +5689,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10350720" y="1997640"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5756,9 +5756,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>559800</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5768,7 +5768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12783240" y="2000880"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5835,9 +5835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>582120</xdr:colOff>
+      <xdr:colOff>581760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5847,7 +5847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15251760" y="1997280"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5914,9 +5914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>555840</xdr:colOff>
+      <xdr:colOff>555480</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5926,7 +5926,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17671320" y="1931400"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5993,9 +5993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>570960</xdr:colOff>
+      <xdr:colOff>570600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>92520</xdr:rowOff>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6005,7 +6005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20132640" y="1956600"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6491,9 +6491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>32040</xdr:colOff>
+      <xdr:colOff>31680</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6503,7 +6503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8586720" y="4510080"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6570,9 +6570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>336240</xdr:colOff>
+      <xdr:colOff>335880</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>149400</xdr:rowOff>
+      <xdr:rowOff>149040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6582,7 +6582,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13171320" y="4467240"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6649,9 +6649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>48240</xdr:colOff>
+      <xdr:colOff>47880</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6665,7 +6665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7208640" y="8989200"/>
-          <a:ext cx="1353600" cy="655920"/>
+          <a:ext cx="1353240" cy="655560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6686,9 +6686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:colOff>319680</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6702,7 +6702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5952600" y="4365720"/>
-          <a:ext cx="2269800" cy="967680"/>
+          <a:ext cx="2269440" cy="967320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6890,9 +6890,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>383400</xdr:colOff>
+      <xdr:colOff>383040</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6902,7 +6902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10869120" y="6181560"/>
-          <a:ext cx="1697040" cy="2680200"/>
+          <a:ext cx="1696680" cy="2679840"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7015,9 +7015,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>183960</xdr:colOff>
+      <xdr:colOff>183600</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7027,7 +7027,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14338800" y="6245640"/>
-          <a:ext cx="1697040" cy="2680200"/>
+          <a:ext cx="1696680" cy="2679840"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7126,9 +7126,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>386280</xdr:colOff>
+      <xdr:colOff>385920</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7142,7 +7142,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11038320" y="9113760"/>
-          <a:ext cx="1530720" cy="620280"/>
+          <a:ext cx="1530360" cy="619920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7163,9 +7163,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>50040</xdr:colOff>
+      <xdr:colOff>49680</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7179,7 +7179,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14430600" y="9160200"/>
-          <a:ext cx="1471320" cy="700920"/>
+          <a:ext cx="1470960" cy="700560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7451,9 +7451,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>36720</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7467,7 +7467,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6297840" y="175320"/>
-          <a:ext cx="2864160" cy="952920"/>
+          <a:ext cx="2863800" cy="952560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7488,9 +7488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>436320</xdr:colOff>
+      <xdr:colOff>435960</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7500,7 +7500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9517680" y="10648440"/>
-          <a:ext cx="4324680" cy="1002240"/>
+          <a:ext cx="4324320" cy="1001880"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7651,9 +7651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>586800</xdr:colOff>
+      <xdr:colOff>586440</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>139320</xdr:rowOff>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7663,7 +7663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7917840" y="12496680"/>
-          <a:ext cx="2405880" cy="962280"/>
+          <a:ext cx="2405520" cy="961920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7730,9 +7730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>522000</xdr:colOff>
+      <xdr:colOff>521640</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7742,7 +7742,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12794760" y="12479040"/>
-          <a:ext cx="2356200" cy="962280"/>
+          <a:ext cx="2355840" cy="961920"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7809,9 +7809,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
+      <xdr:colOff>94320</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7821,7 +7821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8134560" y="14388840"/>
-          <a:ext cx="1697040" cy="2902680"/>
+          <a:ext cx="1696680" cy="2902320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7977,16 +7977,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>588960</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>141120</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>77040</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>436680</xdr:colOff>
+      <xdr:colOff>436320</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7999,8 +7999,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4210920" y="14687640"/>
-          <a:ext cx="3516480" cy="2300040"/>
+          <a:off x="4310280" y="14752440"/>
+          <a:ext cx="3416760" cy="2234880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8021,9 +8021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>448920</xdr:colOff>
+      <xdr:colOff>448560</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8033,7 +8033,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10934640" y="14360400"/>
-          <a:ext cx="1697040" cy="2931120"/>
+          <a:ext cx="1696680" cy="2930760"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8393,9 +8393,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>533880</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:colOff>533520</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8405,7 +8405,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13176000" y="14371920"/>
-          <a:ext cx="2598480" cy="3089160"/>
+          <a:ext cx="2598120" cy="3830400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8700,9 +8700,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>87840</xdr:colOff>
+      <xdr:colOff>87480</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8716,7 +8716,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15928200" y="14501160"/>
-          <a:ext cx="3069000" cy="1127880"/>
+          <a:ext cx="3068640" cy="1127520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8737,9 +8737,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>14040</xdr:colOff>
+      <xdr:colOff>13680</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8753,7 +8753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15913080" y="15723000"/>
-          <a:ext cx="3010320" cy="1713960"/>
+          <a:ext cx="3009960" cy="1713600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8774,9 +8774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>376560</xdr:colOff>
+      <xdr:colOff>376200</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8790,7 +8790,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19123200" y="14605560"/>
-          <a:ext cx="1997280" cy="981000"/>
+          <a:ext cx="1996920" cy="980640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8811,9 +8811,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>473400</xdr:colOff>
+      <xdr:colOff>473040</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
+      <xdr:rowOff>63000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8823,7 +8823,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9721800" y="18211680"/>
-          <a:ext cx="3546000" cy="1130040"/>
+          <a:ext cx="3545640" cy="1129680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8904,9 +8904,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>459720</xdr:colOff>
+      <xdr:colOff>459360</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8916,7 +8916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7887960" y="20107440"/>
-          <a:ext cx="1697040" cy="2902680"/>
+          <a:ext cx="1696680" cy="2902320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9143,9 +9143,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>138240</xdr:colOff>
+      <xdr:colOff>137880</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9155,7 +9155,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13070160" y="20011680"/>
-          <a:ext cx="1697040" cy="2902680"/>
+          <a:ext cx="1696680" cy="2902320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9222,9 +9222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>349200</xdr:colOff>
+      <xdr:colOff>348840</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9238,7 +9238,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14904000" y="20251800"/>
-          <a:ext cx="1908720" cy="954000"/>
+          <a:ext cx="1908360" cy="953640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9259,9 +9259,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>484560</xdr:colOff>
+      <xdr:colOff>484200</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9275,7 +9275,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14904360" y="21389040"/>
-          <a:ext cx="1432080" cy="772560"/>
+          <a:ext cx="1431720" cy="772200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9296,9 +9296,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
+      <xdr:colOff>146880</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9312,7 +9312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17036280" y="20266920"/>
-          <a:ext cx="2631960" cy="1422720"/>
+          <a:ext cx="2631600" cy="1422360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9500,9 +9500,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>549360</xdr:colOff>
+      <xdr:colOff>549000</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9512,7 +9512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9737280" y="23963760"/>
-          <a:ext cx="3606480" cy="1161360"/>
+          <a:ext cx="3606120" cy="1161000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9579,9 +9579,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>367920</xdr:colOff>
+      <xdr:colOff>367560</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9591,7 +9591,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8407800" y="26352720"/>
-          <a:ext cx="1697040" cy="2902680"/>
+          <a:ext cx="1696680" cy="2902320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9690,9 +9690,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>322560</xdr:colOff>
+      <xdr:colOff>322200</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9702,7 +9702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10808280" y="26432640"/>
-          <a:ext cx="1697040" cy="2902680"/>
+          <a:ext cx="1696680" cy="2902320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9819,9 +9819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>474480</xdr:colOff>
+      <xdr:colOff>474120</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9831,7 +9831,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13406400" y="26480160"/>
-          <a:ext cx="1697040" cy="2902680"/>
+          <a:ext cx="1696680" cy="2902320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9898,9 +9898,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>68040</xdr:colOff>
+      <xdr:colOff>67680</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9914,7 +9914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15270840" y="26679600"/>
-          <a:ext cx="1872000" cy="963000"/>
+          <a:ext cx="1871640" cy="962640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10144,9 +10144,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>171720</xdr:colOff>
+      <xdr:colOff>171360</xdr:colOff>
       <xdr:row>176</xdr:row>
-      <xdr:rowOff>154080</xdr:rowOff>
+      <xdr:rowOff>153720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10156,7 +10156,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18732600" y="29424240"/>
-          <a:ext cx="7686720" cy="1575360"/>
+          <a:ext cx="7686360" cy="1575000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10223,9 +10223,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>586080</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10235,7 +10235,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7306560" y="32515560"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10302,9 +10302,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>383040</xdr:colOff>
+      <xdr:colOff>382680</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>70200</xdr:rowOff>
+      <xdr:rowOff>69840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10314,7 +10314,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23002200" y="32780160"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10381,9 +10381,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>572040</xdr:colOff>
+      <xdr:colOff>571680</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10393,7 +10393,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26248680" y="32668920"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10460,9 +10460,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>64080</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10472,7 +10472,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34449840" y="32248080"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10580,9 +10580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6480</xdr:colOff>
+      <xdr:colOff>6120</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10592,7 +10592,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34176240"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10677,9 +10677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
+      <xdr:colOff>571320</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10689,7 +10689,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2399760" y="34176960"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10756,9 +10756,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10768,7 +10768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4815000" y="34160400"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10835,9 +10835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10847,7 +10847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7261200" y="34160400"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10914,9 +10914,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>602280</xdr:colOff>
+      <xdr:colOff>601920</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10926,7 +10926,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12825720" y="34080120"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10993,9 +10993,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>583560</xdr:colOff>
+      <xdr:colOff>583200</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11005,7 +11005,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17087760" y="34048080"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11072,9 +11072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>548280</xdr:colOff>
+      <xdr:colOff>547920</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11084,7 +11084,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19498320" y="34002720"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11151,9 +11151,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>373680</xdr:colOff>
+      <xdr:colOff>373320</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
+      <xdr:rowOff>138240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11163,7 +11163,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23089680" y="35707680"/>
-          <a:ext cx="1697040" cy="2902680"/>
+          <a:ext cx="1696680" cy="2902320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11266,9 +11266,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>567360</xdr:colOff>
+      <xdr:colOff>567000</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11278,7 +11278,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26244000" y="33963840"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11345,9 +11345,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>509040</xdr:colOff>
+      <xdr:colOff>508680</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11357,7 +11357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="29854800" y="33919920"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11424,9 +11424,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>514080</xdr:colOff>
+      <xdr:colOff>513720</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11436,7 +11436,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="37197720" y="33995520"/>
-          <a:ext cx="1793880" cy="727200"/>
+          <a:ext cx="1793520" cy="726840"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11503,9 +11503,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>574560</xdr:colOff>
+      <xdr:colOff>574200</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11515,7 +11515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34812360" y="33942240"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11582,9 +11582,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>524520</xdr:colOff>
+      <xdr:colOff>524160</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11594,7 +11594,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="32316120" y="33903000"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -11996,9 +11996,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>539640</xdr:colOff>
+      <xdr:colOff>539280</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12012,7 +12012,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5717160" y="32472720"/>
-          <a:ext cx="1501920" cy="659880"/>
+          <a:ext cx="1501560" cy="659520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12033,9 +12033,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>521280</xdr:colOff>
+      <xdr:colOff>520920</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12045,7 +12045,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="35641800"/>
-          <a:ext cx="1697040" cy="3504600"/>
+          <a:ext cx="1696680" cy="3504240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12112,9 +12112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>198720</xdr:colOff>
+      <xdr:colOff>198360</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>100800</xdr:rowOff>
+      <xdr:rowOff>100440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12124,7 +12124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2354400" y="35721720"/>
-          <a:ext cx="2077560" cy="3201480"/>
+          <a:ext cx="2077200" cy="3201120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12269,9 +12269,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:colOff>91080</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12281,7 +12281,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4830840" y="35769600"/>
-          <a:ext cx="1940040" cy="3249360"/>
+          <a:ext cx="1939680" cy="3249000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12380,9 +12380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>392040</xdr:colOff>
+      <xdr:colOff>391680</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12396,7 +12396,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="32760" y="39210840"/>
-          <a:ext cx="1535040" cy="620640"/>
+          <a:ext cx="1534680" cy="620280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12417,9 +12417,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>592920</xdr:colOff>
+      <xdr:colOff>592560</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12433,7 +12433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2402640" y="39099240"/>
-          <a:ext cx="1812240" cy="780120"/>
+          <a:ext cx="1811880" cy="779760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12454,9 +12454,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>366840</xdr:colOff>
+      <xdr:colOff>366480</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -12470,7 +12470,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4845600" y="39162960"/>
-          <a:ext cx="1589040" cy="776880"/>
+          <a:ext cx="1588680" cy="776520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12491,9 +12491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>54000</xdr:colOff>
+      <xdr:colOff>53640</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12503,7 +12503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7276680" y="35753760"/>
-          <a:ext cx="1902600" cy="3249360"/>
+          <a:ext cx="1902240" cy="3249000"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12680,9 +12680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>539280</xdr:colOff>
+      <xdr:colOff>538920</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12692,7 +12692,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9705240" y="35845560"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12759,9 +12759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>579960</xdr:colOff>
+      <xdr:colOff>579600</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>100080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12771,7 +12771,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12192120" y="35789760"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -12838,9 +12838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>563760</xdr:colOff>
+      <xdr:colOff>563400</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -12850,7 +12850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14621760" y="35731800"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13001,9 +13001,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
+      <xdr:colOff>187200</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13013,7 +13013,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9681480" y="36867600"/>
-          <a:ext cx="2077560" cy="3201480"/>
+          <a:ext cx="2077200" cy="3201120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13194,9 +13194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>279360</xdr:colOff>
+      <xdr:colOff>279000</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13206,7 +13206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12219120" y="36902520"/>
-          <a:ext cx="2077560" cy="3201480"/>
+          <a:ext cx="2077200" cy="3201120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13355,9 +13355,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>262080</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13367,7 +13367,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14648400" y="36832320"/>
-          <a:ext cx="2077560" cy="3201480"/>
+          <a:ext cx="2077200" cy="3201120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -13935,9 +13935,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>265320</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -13947,7 +13947,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19543320" y="35727840"/>
-          <a:ext cx="2077560" cy="3201480"/>
+          <a:ext cx="2077200" cy="3201120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14092,9 +14092,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>598320</xdr:colOff>
+      <xdr:colOff>597960</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>164880</xdr:rowOff>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14104,7 +14104,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26371800" y="35710200"/>
-          <a:ext cx="1697040" cy="4153320"/>
+          <a:ext cx="1696680" cy="4152960"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14303,9 +14303,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>210240</xdr:colOff>
+      <xdr:colOff>209880</xdr:colOff>
       <xdr:row>235</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -14319,7 +14319,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26319240" y="40390920"/>
-          <a:ext cx="1973160" cy="991800"/>
+          <a:ext cx="1972800" cy="991440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14466,9 +14466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>199440</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14478,7 +14478,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="29842560" y="35588160"/>
-          <a:ext cx="1496880" cy="3201480"/>
+          <a:ext cx="1496520" cy="3201120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14613,9 +14613,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>267480</xdr:colOff>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14625,7 +14625,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="32356080" y="35588160"/>
-          <a:ext cx="1496880" cy="3201480"/>
+          <a:ext cx="1496520" cy="3201120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14760,9 +14760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14772,7 +14772,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34822080" y="35560080"/>
-          <a:ext cx="1496880" cy="3201480"/>
+          <a:ext cx="1496520" cy="3201120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14839,9 +14839,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>600480</xdr:colOff>
+      <xdr:colOff>600120</xdr:colOff>
       <xdr:row>205</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14851,7 +14851,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="37284120" y="35337240"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -14918,9 +14918,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>487800</xdr:colOff>
+      <xdr:colOff>487440</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -14930,7 +14930,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="37268280" y="36595080"/>
-          <a:ext cx="1697040" cy="4153320"/>
+          <a:ext cx="1696680" cy="4152960"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15590,9 +15590,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>81720</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>244</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -15602,7 +15602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7887240" y="41805720"/>
-          <a:ext cx="3154320" cy="1211400"/>
+          <a:ext cx="3153960" cy="1211040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15752,9 +15752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>572400</xdr:colOff>
+      <xdr:colOff>572040</xdr:colOff>
       <xdr:row>256</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -15764,7 +15764,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3623400" y="44270640"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15831,9 +15831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
+      <xdr:colOff>5760</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -15843,7 +15843,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8560800" y="44191080"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -15910,9 +15910,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
+      <xdr:colOff>20880</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -15922,7 +15922,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14079240" y="44127360"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16115,9 +16115,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>411840</xdr:colOff>
+      <xdr:colOff>411480</xdr:colOff>
       <xdr:row>271</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16131,7 +16131,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1391040" y="46584000"/>
-          <a:ext cx="2031120" cy="1029600"/>
+          <a:ext cx="2030760" cy="1029240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16152,9 +16152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>414000</xdr:colOff>
+      <xdr:colOff>413640</xdr:colOff>
       <xdr:row>280</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16164,7 +16164,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3561840" y="45704160"/>
-          <a:ext cx="1697040" cy="3504600"/>
+          <a:ext cx="1696680" cy="3504240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16273,9 +16273,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>459000</xdr:colOff>
+      <xdr:colOff>458640</xdr:colOff>
       <xdr:row>278</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16285,7 +16285,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8498880" y="45465120"/>
-          <a:ext cx="1697040" cy="3504600"/>
+          <a:ext cx="1696680" cy="3504240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16352,9 +16352,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>525960</xdr:colOff>
+      <xdr:colOff>525600</xdr:colOff>
       <xdr:row>272</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16368,7 +16368,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6017040" y="46276920"/>
-          <a:ext cx="2411280" cy="1510200"/>
+          <a:ext cx="2410920" cy="1509840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16389,9 +16389,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>519840</xdr:colOff>
+      <xdr:colOff>519480</xdr:colOff>
       <xdr:row>278</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16401,7 +16401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14063400" y="45449280"/>
-          <a:ext cx="1697040" cy="3504600"/>
+          <a:ext cx="1696680" cy="3504240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16552,9 +16552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>452880</xdr:colOff>
+      <xdr:colOff>452520</xdr:colOff>
       <xdr:row>270</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16568,7 +16568,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11633040" y="46205280"/>
-          <a:ext cx="2225880" cy="1337400"/>
+          <a:ext cx="2225520" cy="1337040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16589,9 +16589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
+      <xdr:colOff>571320</xdr:colOff>
       <xdr:row>289</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16601,7 +16601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8514720" y="50051160"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16668,9 +16668,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>587160</xdr:colOff>
+      <xdr:colOff>586800</xdr:colOff>
       <xdr:row>298</xdr:row>
-      <xdr:rowOff>90720</xdr:rowOff>
+      <xdr:rowOff>90360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16680,7 +16680,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8530200" y="51643440"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16747,9 +16747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>60840</xdr:colOff>
+      <xdr:colOff>60480</xdr:colOff>
       <xdr:row>326</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16763,7 +16763,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8514360" y="52551000"/>
-          <a:ext cx="4952520" cy="4771440"/>
+          <a:ext cx="4952160" cy="4771080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16784,9 +16784,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>525960</xdr:colOff>
+      <xdr:colOff>525600</xdr:colOff>
       <xdr:row>334</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16796,7 +16796,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8469000" y="57902040"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -16863,9 +16863,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>314280</xdr:colOff>
+      <xdr:colOff>313920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -16879,7 +16879,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19138680" y="116640"/>
-          <a:ext cx="1919520" cy="980280"/>
+          <a:ext cx="1919160" cy="979920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16900,9 +16900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>66960</xdr:colOff>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -16912,7 +16912,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17182440" y="254880"/>
-          <a:ext cx="1793880" cy="764640"/>
+          <a:ext cx="1793520" cy="764280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17002,9 +17002,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>154440</xdr:colOff>
+      <xdr:colOff>154080</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17014,7 +17014,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4076280" y="121320"/>
-          <a:ext cx="2804400" cy="824400"/>
+          <a:ext cx="2804040" cy="824040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -17079,9 +17079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
+      <xdr:colOff>547200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17091,7 +17091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="786600" y="1801800"/>
-          <a:ext cx="983880" cy="766800"/>
+          <a:ext cx="983520" cy="766440"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17158,9 +17158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>561240</xdr:colOff>
+      <xdr:colOff>560880</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17170,7 +17170,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2634840" y="1801440"/>
-          <a:ext cx="983880" cy="766800"/>
+          <a:ext cx="983520" cy="766440"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17237,9 +17237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>534960</xdr:colOff>
+      <xdr:colOff>534600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17249,7 +17249,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4442760" y="1788120"/>
-          <a:ext cx="984240" cy="766800"/>
+          <a:ext cx="983880" cy="766440"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17316,9 +17316,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>561960</xdr:colOff>
+      <xdr:colOff>561600</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17328,7 +17328,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6303240" y="1788120"/>
-          <a:ext cx="984960" cy="766800"/>
+          <a:ext cx="984600" cy="766440"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17395,9 +17395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>574920</xdr:colOff>
+      <xdr:colOff>574560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17407,7 +17407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7949880" y="1761840"/>
-          <a:ext cx="1185840" cy="810720"/>
+          <a:ext cx="1185480" cy="810360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17474,9 +17474,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>574920</xdr:colOff>
+      <xdr:colOff>574560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17486,7 +17486,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9784800" y="1761840"/>
-          <a:ext cx="1185480" cy="810720"/>
+          <a:ext cx="1185120" cy="810360"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17553,9 +17553,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>595440</xdr:colOff>
+      <xdr:colOff>595080</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17565,7 +17565,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="624600" y="3047760"/>
-          <a:ext cx="1193760" cy="2759400"/>
+          <a:ext cx="1193400" cy="2759040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17760,9 +17760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>595440</xdr:colOff>
+      <xdr:colOff>595080</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17772,7 +17772,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2446920" y="3074760"/>
-          <a:ext cx="1206000" cy="2759400"/>
+          <a:ext cx="1205640" cy="2759040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -17903,9 +17903,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>557640</xdr:colOff>
+      <xdr:colOff>557280</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -17915,7 +17915,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4293000" y="3102480"/>
-          <a:ext cx="1156680" cy="2731680"/>
+          <a:ext cx="1156320" cy="2731320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18046,9 +18046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>585000</xdr:colOff>
+      <xdr:colOff>584640</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -18058,7 +18058,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6127560" y="3102480"/>
-          <a:ext cx="1183680" cy="2680560"/>
+          <a:ext cx="1183320" cy="2680200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18253,9 +18253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>558360</xdr:colOff>
+      <xdr:colOff>558000</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -18265,7 +18265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7974720" y="3089160"/>
-          <a:ext cx="1144440" cy="2680560"/>
+          <a:ext cx="1144080" cy="2680200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -18396,9 +18396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
+      <xdr:colOff>596880</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -18408,7 +18408,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9796680" y="3089160"/>
-          <a:ext cx="1195920" cy="2680560"/>
+          <a:ext cx="1195560" cy="2680200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -19048,9 +19048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>534240</xdr:colOff>
+      <xdr:colOff>533880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:rowOff>146880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19060,7 +19060,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3232080" y="135360"/>
-          <a:ext cx="2805480" cy="824400"/>
+          <a:ext cx="2805120" cy="824040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19125,9 +19125,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>561240</xdr:colOff>
+      <xdr:colOff>560880</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19137,7 +19137,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2022480" y="1653480"/>
-          <a:ext cx="984600" cy="766800"/>
+          <a:ext cx="984240" cy="766440"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -19204,9 +19204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>222120</xdr:colOff>
+      <xdr:colOff>221760</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19216,7 +19216,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4194000" y="1676160"/>
-          <a:ext cx="1531440" cy="730080"/>
+          <a:ext cx="1531080" cy="729720"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -19283,9 +19283,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>83880</xdr:colOff>
+      <xdr:colOff>83520</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19295,7 +19295,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6538680" y="1628280"/>
-          <a:ext cx="1494720" cy="757440"/>
+          <a:ext cx="1494360" cy="757080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -19362,9 +19362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>596520</xdr:colOff>
+      <xdr:colOff>596160</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>96120</xdr:rowOff>
+      <xdr:rowOff>95760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19374,7 +19374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6715440" y="2940840"/>
-          <a:ext cx="1218960" cy="2682000"/>
+          <a:ext cx="1218600" cy="2681640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -19505,9 +19505,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>583200</xdr:colOff>
+      <xdr:colOff>582840</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>154800</xdr:rowOff>
+      <xdr:rowOff>154440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19517,7 +19517,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4280760" y="2921760"/>
-          <a:ext cx="1194480" cy="2759760"/>
+          <a:ext cx="1194120" cy="2759400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -19680,9 +19680,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>559080</xdr:colOff>
+      <xdr:colOff>558720</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -19692,7 +19692,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1847880" y="2939760"/>
-          <a:ext cx="1157040" cy="2682000"/>
+          <a:ext cx="1156680" cy="2681640"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -20044,8 +20044,8 @@
   </sheetPr>
   <dimension ref="A6:AB33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T58" activeCellId="0" sqref="T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20106,8 +20106,8 @@
   </sheetPr>
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E55" activeCellId="0" sqref="E55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G77" activeCellId="0" sqref="G77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20161,8 +20161,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K54" activeCellId="0" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20187,7 +20187,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I77" activeCellId="0" sqref="I77"/>
     </sheetView>
   </sheetViews>
@@ -20214,7 +20214,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R23" activeCellId="0" sqref="R23"/>
     </sheetView>
   </sheetViews>

--- a/Cosmicode Data/Lead Flow.xlsx
+++ b/Cosmicode Data/Lead Flow.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ADMIN" sheetId="1" state="visible" r:id="rId2"/>
@@ -107,7 +107,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
     </font>
@@ -119,7 +118,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="0"/>
     </font>
@@ -213,67 +211,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="0" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16523280" y="4320360"/>
-          <a:ext cx="720" cy="531000"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="21600" h="21600">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="21600" y="21600"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="4a7ebb"/>
-          </a:solidFill>
-          <a:tailEnd len="med" type="triangle" w="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>559440</xdr:colOff>
       <xdr:row>1</xdr:row>
@@ -281,19 +218,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>584280</xdr:colOff>
+      <xdr:colOff>583920</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="CustomShape 1"/>
+      <xdr:rowOff>116280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="0" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9684720" y="218160"/>
-          <a:ext cx="3082320" cy="599400"/>
+          <a:ext cx="3081960" cy="599040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -356,19 +293,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>604800</xdr:colOff>
+      <xdr:colOff>604440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>84960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CustomShape 1"/>
+      <xdr:rowOff>84600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="778320" y="1986120"/>
-          <a:ext cx="1613880" cy="727560"/>
+          <a:ext cx="1613520" cy="727200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -433,19 +370,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>578160</xdr:colOff>
+      <xdr:colOff>577800</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CustomShape 1"/>
+      <xdr:rowOff>127080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8647200" y="3079800"/>
-          <a:ext cx="5337000" cy="727920"/>
+          <a:ext cx="5336640" cy="727560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -499,19 +436,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>192960</xdr:colOff>
+      <xdr:colOff>192600</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CustomShape 1"/>
+      <xdr:rowOff>24480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7010640" y="6108120"/>
-          <a:ext cx="1696320" cy="2679480"/>
+          <a:ext cx="1695960" cy="2679120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -639,7 +576,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 1"/>
+        <xdr:cNvPr id="4" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -675,19 +612,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>591480</xdr:colOff>
+      <xdr:colOff>591120</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="CustomShape 1"/>
+      <xdr:rowOff>72720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3031200" y="1961640"/>
-          <a:ext cx="1793520" cy="740160"/>
+          <a:ext cx="1793160" cy="739800"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -743,19 +680,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>576000</xdr:colOff>
+      <xdr:colOff>575640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
+      <xdr:rowOff>120240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5462280" y="1985400"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -820,19 +757,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>587880</xdr:colOff>
+      <xdr:colOff>587520</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
+      <xdr:rowOff>120600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7920000" y="1985760"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -888,19 +825,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>572400</xdr:colOff>
+      <xdr:colOff>572040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+      <xdr:rowOff>132480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10350720" y="1997640"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -956,19 +893,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>559080</xdr:colOff>
+      <xdr:colOff>558720</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+      <xdr:rowOff>135720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12783240" y="2000880"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1024,19 +961,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>581400</xdr:colOff>
+      <xdr:colOff>581040</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+      <xdr:rowOff>132120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15251760" y="1997280"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1092,19 +1029,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>555120</xdr:colOff>
+      <xdr:colOff>554760</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+      <xdr:rowOff>66240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17671320" y="1931400"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1160,19 +1097,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>570240</xdr:colOff>
+      <xdr:colOff>569880</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>91800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20132640" y="1956600"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1234,7 +1171,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Line 1"/>
+        <xdr:cNvPr id="13" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1276,7 +1213,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Line 1"/>
+        <xdr:cNvPr id="14" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1317,7 +1254,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Line 1"/>
+        <xdr:cNvPr id="15" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1359,7 +1296,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Line 1"/>
+        <xdr:cNvPr id="16" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1401,7 +1338,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Line 1"/>
+        <xdr:cNvPr id="17" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1443,7 +1380,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Line 1"/>
+        <xdr:cNvPr id="18" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1485,7 +1422,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Line 1"/>
+        <xdr:cNvPr id="19" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1527,7 +1464,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Line 1"/>
+        <xdr:cNvPr id="20" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1569,7 +1506,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Line 1"/>
+        <xdr:cNvPr id="21" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1611,7 +1548,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Line 1"/>
+        <xdr:cNvPr id="22" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1647,19 +1584,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>31320</xdr:colOff>
+      <xdr:colOff>30960</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>16200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
+      <xdr:rowOff>15840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8586720" y="4510080"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1715,19 +1652,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>335520</xdr:colOff>
+      <xdr:colOff>335160</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1"/>
+      <xdr:rowOff>148320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13171320" y="4467240"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1783,13 +1720,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>47520</xdr:colOff>
+      <xdr:colOff>47160</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 1" descr=""/>
+        <xdr:cNvPr id="25" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1799,7 +1736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7208640" y="8989200"/>
-          <a:ext cx="1352880" cy="655200"/>
+          <a:ext cx="1352520" cy="654840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1820,13 +1757,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>319320</xdr:colOff>
+      <xdr:colOff>318960</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 2" descr=""/>
+        <xdr:cNvPr id="26" name="Image 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1836,7 +1773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5952600" y="4365720"/>
-          <a:ext cx="2269080" cy="966960"/>
+          <a:ext cx="2268720" cy="966600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1863,7 +1800,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Line 1"/>
+        <xdr:cNvPr id="27" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1904,7 +1841,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Line 1"/>
+        <xdr:cNvPr id="28" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1946,7 +1883,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Line 1"/>
+        <xdr:cNvPr id="29" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1988,7 +1925,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Line 1"/>
+        <xdr:cNvPr id="30" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2024,19 +1961,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>382680</xdr:colOff>
+      <xdr:colOff>382320</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>98280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1"/>
+      <xdr:rowOff>97920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10869120" y="6181560"/>
-          <a:ext cx="1696320" cy="2679480"/>
+          <a:ext cx="1695960" cy="2679120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2120,19 +2057,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
+      <xdr:rowOff>162000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14338800" y="6245640"/>
-          <a:ext cx="1696320" cy="2679480"/>
+          <a:ext cx="1695960" cy="2679120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2207,13 +2144,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>385560</xdr:colOff>
+      <xdr:colOff>385200</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 3" descr=""/>
+        <xdr:cNvPr id="33" name="Image 3" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2223,7 +2160,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11038320" y="9113760"/>
-          <a:ext cx="1530000" cy="619560"/>
+          <a:ext cx="1529640" cy="619200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2244,13 +2181,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>49320</xdr:colOff>
+      <xdr:colOff>48960</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>46080</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 4" descr=""/>
+        <xdr:cNvPr id="34" name="Image 4" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2260,7 +2197,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14430600" y="9160200"/>
-          <a:ext cx="1470600" cy="700200"/>
+          <a:ext cx="1470240" cy="699840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2287,7 +2224,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Line 1"/>
+        <xdr:cNvPr id="35" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2329,7 +2266,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Line 1"/>
+        <xdr:cNvPr id="36" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2371,7 +2308,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="Line 1"/>
+        <xdr:cNvPr id="37" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2412,7 +2349,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Line 1"/>
+        <xdr:cNvPr id="38" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2454,7 +2391,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Line 1"/>
+        <xdr:cNvPr id="39" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2496,7 +2433,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Line 1"/>
+        <xdr:cNvPr id="40" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2532,13 +2469,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>36000</xdr:colOff>
+      <xdr:colOff>35640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Image 5" descr=""/>
+        <xdr:cNvPr id="41" name="Image 5" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2548,7 +2485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6297840" y="175320"/>
-          <a:ext cx="2863440" cy="952200"/>
+          <a:ext cx="2863080" cy="951840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2569,19 +2506,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>435600</xdr:colOff>
+      <xdr:colOff>435240</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
+      <xdr:rowOff>82440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9517680" y="10648440"/>
-          <a:ext cx="4323960" cy="1001520"/>
+          <a:ext cx="4323600" cy="1001160"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2643,7 +2580,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Line 1"/>
+        <xdr:cNvPr id="43" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2685,7 +2622,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Line 1"/>
+        <xdr:cNvPr id="44" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2721,19 +2658,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>586080</xdr:colOff>
+      <xdr:colOff>585720</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>138600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
+      <xdr:rowOff>138240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7917840" y="12496680"/>
-          <a:ext cx="2405160" cy="961560"/>
+          <a:ext cx="2404800" cy="961200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2789,19 +2726,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>521280</xdr:colOff>
+      <xdr:colOff>520920</xdr:colOff>
       <xdr:row>76</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1"/>
+      <xdr:rowOff>120600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12794760" y="12479040"/>
-          <a:ext cx="2355480" cy="961560"/>
+          <a:ext cx="2355120" cy="961200"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2857,19 +2794,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>93960</xdr:colOff>
+      <xdr:colOff>93600</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
+      <xdr:rowOff>115200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8134560" y="14388840"/>
-          <a:ext cx="1696320" cy="2901960"/>
+          <a:ext cx="1695960" cy="2901600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2982,13 +2919,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>435960</xdr:colOff>
+      <xdr:colOff>435600</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Image 6" descr=""/>
+        <xdr:cNvPr id="48" name="Image 6" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2998,7 +2935,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4310280" y="14752440"/>
-          <a:ext cx="3416400" cy="2234520"/>
+          <a:ext cx="3416040" cy="2234160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3019,19 +2956,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>448200</xdr:colOff>
+      <xdr:colOff>447840</xdr:colOff>
       <xdr:row>98</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+      <xdr:rowOff>115200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10934640" y="14360400"/>
-          <a:ext cx="1696320" cy="2930400"/>
+          <a:ext cx="1695960" cy="2930040"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3093,7 +3030,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Line 1"/>
+        <xdr:cNvPr id="50" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3134,7 +3071,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Line 1"/>
+        <xdr:cNvPr id="51" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3176,7 +3113,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Line 1"/>
+        <xdr:cNvPr id="52" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3218,7 +3155,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Line 1"/>
+        <xdr:cNvPr id="53" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3260,7 +3197,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Line 1"/>
+        <xdr:cNvPr id="54" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3302,7 +3239,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Line 1"/>
+        <xdr:cNvPr id="55" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3344,7 +3281,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Line 1"/>
+        <xdr:cNvPr id="56" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3380,19 +3317,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>533160</xdr:colOff>
+      <xdr:colOff>532800</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="CustomShape 1"/>
+      <xdr:rowOff>150120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13176000" y="14371920"/>
-          <a:ext cx="2597760" cy="3830040"/>
+          <a:ext cx="2597400" cy="3829680"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3582,13 +3519,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>87120</xdr:colOff>
+      <xdr:colOff>86760</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Image 7" descr=""/>
+        <xdr:cNvPr id="58" name="Image 7" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3598,7 +3535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15928200" y="14501160"/>
-          <a:ext cx="3068280" cy="1127160"/>
+          <a:ext cx="3067920" cy="1126800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3619,13 +3556,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>13320</xdr:colOff>
+      <xdr:colOff>12960</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>85320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Image 8" descr=""/>
+        <xdr:cNvPr id="59" name="Image 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3635,7 +3572,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15913080" y="15723000"/>
-          <a:ext cx="3009600" cy="1713240"/>
+          <a:ext cx="3009240" cy="1712880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3656,13 +3593,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>375840</xdr:colOff>
+      <xdr:colOff>375480</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Image 9" descr=""/>
+        <xdr:cNvPr id="60" name="Image 9" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -3672,7 +3609,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19123200" y="14605560"/>
-          <a:ext cx="1996560" cy="980280"/>
+          <a:ext cx="1996200" cy="979920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3693,19 +3630,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>472680</xdr:colOff>
+      <xdr:colOff>472320</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>62640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="CustomShape 1"/>
+      <xdr:rowOff>62280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9721800" y="18211680"/>
-          <a:ext cx="3545280" cy="1129320"/>
+          <a:ext cx="3544920" cy="1128960"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3770,19 +3707,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>459000</xdr:colOff>
+      <xdr:colOff>458640</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="CustomShape 1"/>
+      <xdr:rowOff>50040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7887960" y="20107440"/>
-          <a:ext cx="1696320" cy="2901960"/>
+          <a:ext cx="1695960" cy="2901600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3933,19 +3870,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>137520</xdr:colOff>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="CustomShape 1"/>
+      <xdr:rowOff>129600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13070160" y="20011680"/>
-          <a:ext cx="1696320" cy="2901960"/>
+          <a:ext cx="1695960" cy="2901600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4001,13 +3938,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>348480</xdr:colOff>
+      <xdr:colOff>348120</xdr:colOff>
       <xdr:row>120</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Image 10" descr=""/>
+        <xdr:cNvPr id="64" name="Image 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4017,7 +3954,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14904000" y="20251800"/>
-          <a:ext cx="1908000" cy="953280"/>
+          <a:ext cx="1907640" cy="952920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4038,13 +3975,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>483840</xdr:colOff>
+      <xdr:colOff>483480</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Image 11" descr=""/>
+        <xdr:cNvPr id="65" name="Image 11" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4054,7 +3991,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14904360" y="21389040"/>
-          <a:ext cx="1431360" cy="771840"/>
+          <a:ext cx="1431000" cy="771480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4075,13 +4012,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>146520</xdr:colOff>
+      <xdr:colOff>146160</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Image 12" descr=""/>
+        <xdr:cNvPr id="66" name="Image 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4091,7 +4028,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17036280" y="20266920"/>
-          <a:ext cx="2631240" cy="1422000"/>
+          <a:ext cx="2630880" cy="1421640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4118,7 +4055,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Line 1"/>
+        <xdr:cNvPr id="67" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4159,7 +4096,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Line 1"/>
+        <xdr:cNvPr id="68" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4201,7 +4138,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Line 1"/>
+        <xdr:cNvPr id="69" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4243,7 +4180,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Line 1"/>
+        <xdr:cNvPr id="70" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4279,19 +4216,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>548280</xdr:colOff>
       <xdr:row>143</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="CustomShape 1"/>
+      <xdr:rowOff>61920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9737280" y="23963760"/>
-          <a:ext cx="3605760" cy="1160640"/>
+          <a:ext cx="3605400" cy="1160280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4347,19 +4284,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>367200</xdr:colOff>
+      <xdr:colOff>366840</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="CustomShape 1"/>
+      <xdr:rowOff>161280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8407800" y="26352720"/>
-          <a:ext cx="1696320" cy="2901960"/>
+          <a:ext cx="1695960" cy="2901600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4434,19 +4371,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>321840</xdr:colOff>
+      <xdr:colOff>321480</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="CustomShape 1"/>
+      <xdr:rowOff>65880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10808280" y="26432640"/>
-          <a:ext cx="1696320" cy="2901960"/>
+          <a:ext cx="1695960" cy="2901600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4531,19 +4468,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>473760</xdr:colOff>
+      <xdr:colOff>473400</xdr:colOff>
       <xdr:row>167</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="CustomShape 1"/>
+      <xdr:rowOff>113400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="74" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13406400" y="26480160"/>
-          <a:ext cx="1696320" cy="2901960"/>
+          <a:ext cx="1695960" cy="2901600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4599,13 +4536,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>67320</xdr:colOff>
+      <xdr:colOff>66960</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Image 13" descr=""/>
+        <xdr:cNvPr id="75" name="Image 13" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -4615,7 +4552,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15270840" y="26679600"/>
-          <a:ext cx="1871280" cy="962280"/>
+          <a:ext cx="1870920" cy="961920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4642,7 +4579,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="Line 1"/>
+        <xdr:cNvPr id="76" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4683,7 +4620,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="Line 1"/>
+        <xdr:cNvPr id="77" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4725,7 +4662,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="Line 1"/>
+        <xdr:cNvPr id="78" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4767,7 +4704,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="80" name="Line 1"/>
+        <xdr:cNvPr id="79" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4809,7 +4746,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="Line 1"/>
+        <xdr:cNvPr id="80" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4845,19 +4782,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>171000</xdr:colOff>
+      <xdr:colOff>170640</xdr:colOff>
       <xdr:row>176</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="CustomShape 1"/>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18732600" y="29424240"/>
-          <a:ext cx="7686000" cy="1574640"/>
+          <a:ext cx="7685640" cy="1574280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4913,19 +4850,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>585720</xdr:colOff>
+      <xdr:colOff>585360</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="83" name="CustomShape 1"/>
+      <xdr:rowOff>155160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7306560" y="32515560"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -4981,19 +4918,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>382320</xdr:colOff>
+      <xdr:colOff>381960</xdr:colOff>
       <xdr:row>191</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="84" name="CustomShape 1"/>
+      <xdr:rowOff>69120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23002200" y="32780160"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5049,19 +4986,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>571320</xdr:colOff>
+      <xdr:colOff>570960</xdr:colOff>
       <xdr:row>190</xdr:row>
-      <xdr:rowOff>133560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="85" name="CustomShape 1"/>
+      <xdr:rowOff>133200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26248680" y="32668920"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5117,19 +5054,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>211320</xdr:colOff>
+      <xdr:colOff>210960</xdr:colOff>
       <xdr:row>188</xdr:row>
-      <xdr:rowOff>63360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="86" name="CustomShape 1"/>
+      <xdr:rowOff>63000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34449840" y="32248080"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5191,7 +5128,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="Line 1"/>
+        <xdr:cNvPr id="86" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5226,19 +5163,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>5760</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>63720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="CustomShape 1"/>
+      <xdr:rowOff>63360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34176240"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5304,19 +5241,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>570960</xdr:colOff>
+      <xdr:colOff>570600</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="CustomShape 1"/>
+      <xdr:rowOff>64080</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="88" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2399760" y="34176960"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5372,19 +5309,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>540360</xdr:colOff>
+      <xdr:colOff>540000</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="90" name="CustomShape 1"/>
+      <xdr:rowOff>47520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="89" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4815000" y="34160400"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5440,19 +5377,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>540360</xdr:colOff>
+      <xdr:colOff>540000</xdr:colOff>
       <xdr:row>199</xdr:row>
-      <xdr:rowOff>47880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="CustomShape 1"/>
+      <xdr:rowOff>47520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7261200" y="34160400"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5508,19 +5445,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>601560</xdr:colOff>
+      <xdr:colOff>601200</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="CustomShape 1"/>
+      <xdr:rowOff>142200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12825720" y="34080120"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5576,19 +5513,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>582840</xdr:colOff>
+      <xdr:colOff>582480</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="93" name="CustomShape 1"/>
+      <xdr:rowOff>110160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17087760" y="34048080"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5644,19 +5581,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
+      <xdr:colOff>547200</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="CustomShape 1"/>
+      <xdr:rowOff>64800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19498320" y="34002720"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5712,19 +5649,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>372960</xdr:colOff>
+      <xdr:colOff>372600</xdr:colOff>
       <xdr:row>219</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="CustomShape 1"/>
+      <xdr:rowOff>137520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="94" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="23089680" y="35707680"/>
-          <a:ext cx="1696320" cy="2901960"/>
+          <a:ext cx="1695960" cy="2901600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5800,19 +5737,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>566640</xdr:colOff>
+      <xdr:colOff>566280</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="96" name="CustomShape 1"/>
+      <xdr:rowOff>25920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26244000" y="33963840"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5868,19 +5805,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>508320</xdr:colOff>
+      <xdr:colOff>507960</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="CustomShape 1"/>
+      <xdr:rowOff>157320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="29854800" y="33919920"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5936,19 +5873,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>513360</xdr:colOff>
+      <xdr:colOff>513000</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="CustomShape 1"/>
+      <xdr:rowOff>20160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="37197720" y="33995520"/>
-          <a:ext cx="1793160" cy="726480"/>
+          <a:ext cx="1792800" cy="726120"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6004,19 +5941,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>573840</xdr:colOff>
+      <xdr:colOff>573480</xdr:colOff>
       <xdr:row>198</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="99" name="CustomShape 1"/>
+      <xdr:rowOff>4320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="98" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34812360" y="33942240"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6072,19 +6009,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>523800</xdr:colOff>
+      <xdr:colOff>523440</xdr:colOff>
       <xdr:row>197</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="100" name="CustomShape 1"/>
+      <xdr:rowOff>140400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="99" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="32316120" y="33903000"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6146,7 +6083,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="Line 1"/>
+        <xdr:cNvPr id="100" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6188,7 +6125,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="Line 1"/>
+        <xdr:cNvPr id="101" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6230,7 +6167,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="103" name="Line 1"/>
+        <xdr:cNvPr id="102" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6271,7 +6208,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="104" name="Line 1"/>
+        <xdr:cNvPr id="103" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6313,7 +6250,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="Line 1"/>
+        <xdr:cNvPr id="104" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6355,7 +6292,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="Line 1"/>
+        <xdr:cNvPr id="105" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6397,7 +6334,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="Line 1"/>
+        <xdr:cNvPr id="106" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6439,7 +6376,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="108" name="Line 1"/>
+        <xdr:cNvPr id="107" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6475,13 +6412,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>538920</xdr:colOff>
+      <xdr:colOff>538560</xdr:colOff>
       <xdr:row>189</xdr:row>
-      <xdr:rowOff>7920</xdr:rowOff>
+      <xdr:rowOff>7560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Image 14" descr=""/>
+        <xdr:cNvPr id="108" name="Image 14" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6491,7 +6428,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5717160" y="32472720"/>
-          <a:ext cx="1501200" cy="659160"/>
+          <a:ext cx="1500840" cy="658800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6512,19 +6449,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>520560</xdr:colOff>
+      <xdr:colOff>520200</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="CustomShape 1"/>
+      <xdr:rowOff>147600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="109" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="35641800"/>
-          <a:ext cx="1696320" cy="3503880"/>
+          <a:ext cx="1695960" cy="3503520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6580,19 +6517,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>198000</xdr:colOff>
+      <xdr:colOff>197640</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>100080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="CustomShape 1"/>
+      <xdr:rowOff>99720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="110" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2354400" y="35721720"/>
-          <a:ext cx="2076840" cy="3200760"/>
+          <a:ext cx="2076480" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6695,19 +6632,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>90720</xdr:colOff>
+      <xdr:colOff>90360</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="CustomShape 1"/>
+      <xdr:rowOff>20160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="111" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4830840" y="35769600"/>
-          <a:ext cx="1939320" cy="3248640"/>
+          <a:ext cx="1938960" cy="3248280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6782,13 +6719,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>391320</xdr:colOff>
+      <xdr:colOff>390960</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="Image 15" descr=""/>
+        <xdr:cNvPr id="112" name="Image 15" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6798,7 +6735,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="32760" y="39210840"/>
-          <a:ext cx="1534320" cy="619920"/>
+          <a:ext cx="1533960" cy="619560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6819,13 +6756,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>592200</xdr:colOff>
+      <xdr:colOff>591840</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="Image 16" descr=""/>
+        <xdr:cNvPr id="113" name="Image 16" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6835,7 +6772,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2402640" y="39099240"/>
-          <a:ext cx="1811520" cy="779400"/>
+          <a:ext cx="1811160" cy="779040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6856,13 +6793,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>366120</xdr:colOff>
+      <xdr:colOff>365760</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="Image 17" descr=""/>
+        <xdr:cNvPr id="114" name="Image 17" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -6872,7 +6809,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4845600" y="39162960"/>
-          <a:ext cx="1588320" cy="776160"/>
+          <a:ext cx="1587960" cy="775800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6893,19 +6830,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>52920</xdr:colOff>
       <xdr:row>222</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="CustomShape 1"/>
+      <xdr:rowOff>4320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7276680" y="35753760"/>
-          <a:ext cx="1901880" cy="3248640"/>
+          <a:ext cx="1901520" cy="3248280"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7027,19 +6964,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>538560</xdr:colOff>
+      <xdr:colOff>538200</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="117" name="CustomShape 1"/>
+      <xdr:rowOff>155160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9705240" y="35845560"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7095,19 +7032,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
+      <xdr:colOff>578880</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="118" name="CustomShape 1"/>
+      <xdr:rowOff>99360</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12192120" y="35789760"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7163,19 +7100,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>563040</xdr:colOff>
+      <xdr:colOff>562680</xdr:colOff>
       <xdr:row>208</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="119" name="CustomShape 1"/>
+      <xdr:rowOff>41400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14621760" y="35731800"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7237,7 +7174,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="Line 1"/>
+        <xdr:cNvPr id="119" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7279,7 +7216,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="121" name="Line 1"/>
+        <xdr:cNvPr id="120" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7315,19 +7252,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>186840</xdr:colOff>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="122" name="CustomShape 1"/>
+      <xdr:rowOff>18720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9681480" y="36867600"/>
-          <a:ext cx="2076840" cy="3200760"/>
+          <a:ext cx="2076480" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7450,19 +7387,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>278640</xdr:colOff>
+      <xdr:colOff>278280</xdr:colOff>
       <xdr:row>228</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="123" name="CustomShape 1"/>
+      <xdr:rowOff>53640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12219120" y="36902520"/>
-          <a:ext cx="2076840" cy="3200760"/>
+          <a:ext cx="2076480" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7566,19 +7503,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>261720</xdr:colOff>
+      <xdr:colOff>261360</xdr:colOff>
       <xdr:row>227</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="124" name="CustomShape 1"/>
+      <xdr:rowOff>158760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14648400" y="36832320"/>
-          <a:ext cx="2076840" cy="3200760"/>
+          <a:ext cx="2076480" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -7688,7 +7625,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="Line 1"/>
+        <xdr:cNvPr id="124" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7729,7 +7666,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="Line 1"/>
+        <xdr:cNvPr id="125" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7771,7 +7708,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="Line 1"/>
+        <xdr:cNvPr id="126" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7813,7 +7750,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="128" name="Line 1"/>
+        <xdr:cNvPr id="127" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7855,7 +7792,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="129" name="Line 1"/>
+        <xdr:cNvPr id="128" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7897,7 +7834,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="130" name="Line 1"/>
+        <xdr:cNvPr id="129" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7939,7 +7876,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="131" name="Line 1"/>
+        <xdr:cNvPr id="130" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7981,7 +7918,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="132" name="Line 1"/>
+        <xdr:cNvPr id="131" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8023,7 +7960,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="Line 1"/>
+        <xdr:cNvPr id="132" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8065,7 +8002,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="134" name="Line 1"/>
+        <xdr:cNvPr id="133" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8101,19 +8038,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>264600</xdr:colOff>
+      <xdr:colOff>264240</xdr:colOff>
       <xdr:row>221</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="CustomShape 1"/>
+      <xdr:rowOff>105840</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19543320" y="35727840"/>
-          <a:ext cx="2076840" cy="3200760"/>
+          <a:ext cx="2076480" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8195,7 +8132,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="Line 1"/>
+        <xdr:cNvPr id="135" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8231,19 +8168,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>597600</xdr:colOff>
+      <xdr:colOff>597240</xdr:colOff>
       <xdr:row>226</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="CustomShape 1"/>
+      <xdr:rowOff>163800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26371800" y="35710200"/>
-          <a:ext cx="1696320" cy="4152600"/>
+          <a:ext cx="1695960" cy="4152240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8376,13 +8313,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>209520</xdr:colOff>
+      <xdr:colOff>209160</xdr:colOff>
       <xdr:row>235</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="Image 18" descr=""/>
+        <xdr:cNvPr id="137" name="Image 18" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -8392,7 +8329,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="26319240" y="40390920"/>
-          <a:ext cx="1972440" cy="991080"/>
+          <a:ext cx="1972080" cy="990720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8419,7 +8356,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="Line 1"/>
+        <xdr:cNvPr id="138" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8461,7 +8398,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="Line 1"/>
+        <xdr:cNvPr id="139" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8503,7 +8440,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="Line 1"/>
+        <xdr:cNvPr id="140" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -8539,19 +8476,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>50</xdr:col>
-      <xdr:colOff>199080</xdr:colOff>
+      <xdr:colOff>198720</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="CustomShape 1"/>
+      <xdr:rowOff>141480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="29842560" y="35588160"/>
-          <a:ext cx="1496160" cy="3200760"/>
+          <a:ext cx="1495800" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8646,19 +8583,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:colOff>266400</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>141840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="CustomShape 1"/>
+      <xdr:rowOff>141480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="32356080" y="35588160"/>
-          <a:ext cx="1496160" cy="3200760"/>
+          <a:ext cx="1495800" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8753,19 +8690,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>58</xdr:col>
-      <xdr:colOff>286560</xdr:colOff>
+      <xdr:colOff>286200</xdr:colOff>
       <xdr:row>220</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="CustomShape 1"/>
+      <xdr:rowOff>113400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34822080" y="35560080"/>
-          <a:ext cx="1496160" cy="3200760"/>
+          <a:ext cx="1495800" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8821,19 +8758,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>599760</xdr:colOff>
+      <xdr:colOff>599400</xdr:colOff>
       <xdr:row>205</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="CustomShape 1"/>
+      <xdr:rowOff>172800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="37284120" y="35337240"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -8889,19 +8826,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>487080</xdr:colOff>
+      <xdr:colOff>486720</xdr:colOff>
       <xdr:row>231</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="146" name="CustomShape 1"/>
+      <xdr:rowOff>172440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="37268280" y="36595080"/>
-          <a:ext cx="1696320" cy="4152600"/>
+          <a:ext cx="1695960" cy="4152240"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9040,7 +8977,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="Line 1"/>
+        <xdr:cNvPr id="146" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9081,7 +9018,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="148" name="Line 1"/>
+        <xdr:cNvPr id="147" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9123,7 +9060,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="Line 1"/>
+        <xdr:cNvPr id="148" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9165,7 +9102,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="Line 1"/>
+        <xdr:cNvPr id="149" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9207,7 +9144,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="Line 1"/>
+        <xdr:cNvPr id="150" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9249,7 +9186,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="152" name="Line 1"/>
+        <xdr:cNvPr id="151" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9291,7 +9228,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="Line 1"/>
+        <xdr:cNvPr id="152" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9333,7 +9270,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="154" name="Line 1"/>
+        <xdr:cNvPr id="153" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9375,7 +9312,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="155" name="Line 1"/>
+        <xdr:cNvPr id="154" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9417,7 +9354,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="156" name="Line 1"/>
+        <xdr:cNvPr id="155" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9459,7 +9396,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="157" name="Line 1"/>
+        <xdr:cNvPr id="156" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9495,19 +9432,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>80640</xdr:colOff>
       <xdr:row>244</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="158" name="CustomShape 1"/>
+      <xdr:rowOff>162720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7887240" y="41805720"/>
-          <a:ext cx="3153600" cy="1210680"/>
+          <a:ext cx="3153240" cy="1210320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9569,7 +9506,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="159" name="Line 1"/>
+        <xdr:cNvPr id="158" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9610,7 +9547,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="160" name="Line 1"/>
+        <xdr:cNvPr id="159" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9646,19 +9583,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
+      <xdr:colOff>571320</xdr:colOff>
       <xdr:row>256</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="161" name="CustomShape 1"/>
+      <xdr:rowOff>77760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3623400" y="44270640"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9714,19 +9651,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="162" name="CustomShape 1"/>
+      <xdr:rowOff>173520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8560800" y="44191080"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9782,19 +9719,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>20520</xdr:colOff>
+      <xdr:colOff>20160</xdr:colOff>
       <xdr:row>255</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="163" name="CustomShape 1"/>
+      <xdr:rowOff>109800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14079240" y="44127360"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -9856,7 +9793,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="Line 1"/>
+        <xdr:cNvPr id="163" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9898,7 +9835,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="165" name="Line 1"/>
+        <xdr:cNvPr id="164" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9940,7 +9877,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="166" name="Line 1"/>
+        <xdr:cNvPr id="165" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -9976,13 +9913,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>411120</xdr:colOff>
+      <xdr:colOff>410760</xdr:colOff>
       <xdr:row>271</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="167" name="Image 19" descr=""/>
+        <xdr:cNvPr id="166" name="Image 19" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -9992,7 +9929,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1391040" y="46584000"/>
-          <a:ext cx="2030400" cy="1028880"/>
+          <a:ext cx="2030040" cy="1028520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10013,19 +9950,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>413280</xdr:colOff>
+      <xdr:colOff>412920</xdr:colOff>
       <xdr:row>280</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="168" name="CustomShape 1"/>
+      <xdr:rowOff>45000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3561840" y="45704160"/>
-          <a:ext cx="1696320" cy="3503880"/>
+          <a:ext cx="1695960" cy="3503520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10087,7 +10024,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="169" name="Line 1"/>
+        <xdr:cNvPr id="168" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10123,19 +10060,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>458280</xdr:colOff>
+      <xdr:colOff>457920</xdr:colOff>
       <xdr:row>278</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="170" name="CustomShape 1"/>
+      <xdr:rowOff>156240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8498880" y="45465120"/>
-          <a:ext cx="1696320" cy="3503880"/>
+          <a:ext cx="1695960" cy="3503520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10191,13 +10128,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>525240</xdr:colOff>
+      <xdr:colOff>524880</xdr:colOff>
       <xdr:row>272</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="171" name="Image 20" descr=""/>
+        <xdr:cNvPr id="170" name="Image 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -10207,7 +10144,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6017040" y="46276920"/>
-          <a:ext cx="2410560" cy="1509480"/>
+          <a:ext cx="2410200" cy="1509120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10228,19 +10165,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>519120</xdr:colOff>
+      <xdr:colOff>518760</xdr:colOff>
       <xdr:row>278</xdr:row>
-      <xdr:rowOff>140760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="172" name="CustomShape 1"/>
+      <xdr:rowOff>140400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14063400" y="45449280"/>
-          <a:ext cx="1696320" cy="3503880"/>
+          <a:ext cx="1695960" cy="3503520"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10302,7 +10239,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="173" name="Line 1"/>
+        <xdr:cNvPr id="172" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10344,7 +10281,7 @@
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="174" name="Line 1"/>
+        <xdr:cNvPr id="173" name="Line 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10380,13 +10317,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>452160</xdr:colOff>
+      <xdr:colOff>451800</xdr:colOff>
       <xdr:row>270</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="175" name="Image 21" descr=""/>
+        <xdr:cNvPr id="174" name="Image 21" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -10396,7 +10333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11633040" y="46205280"/>
-          <a:ext cx="2225160" cy="1336680"/>
+          <a:ext cx="2224800" cy="1336320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10417,19 +10354,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>570960</xdr:colOff>
+      <xdr:colOff>570600</xdr:colOff>
       <xdr:row>289</xdr:row>
-      <xdr:rowOff>74880</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="176" name="CustomShape 1"/>
+      <xdr:rowOff>74520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8514720" y="50051160"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10485,19 +10422,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>586440</xdr:colOff>
+      <xdr:colOff>586080</xdr:colOff>
       <xdr:row>298</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="177" name="CustomShape 1"/>
+      <xdr:rowOff>89640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8530200" y="51643440"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10553,13 +10490,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>60120</xdr:colOff>
+      <xdr:colOff>59760</xdr:colOff>
       <xdr:row>326</xdr:row>
-      <xdr:rowOff>96840</xdr:rowOff>
+      <xdr:rowOff>96480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="178" name="Image 22" descr=""/>
+        <xdr:cNvPr id="177" name="Image 22" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -10569,7 +10506,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8514360" y="52551000"/>
-          <a:ext cx="4951800" cy="4770720"/>
+          <a:ext cx="4951440" cy="4770360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10590,19 +10527,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>525240</xdr:colOff>
+      <xdr:colOff>524880</xdr:colOff>
       <xdr:row>334</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="179" name="CustomShape 1"/>
+      <xdr:rowOff>38880</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="178" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8469000" y="57902040"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10658,13 +10595,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>44640</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="180" name="Image 23" descr=""/>
+        <xdr:cNvPr id="179" name="Image 23" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -10674,7 +10611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="19138680" y="116640"/>
-          <a:ext cx="1918800" cy="979560"/>
+          <a:ext cx="1918440" cy="979200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10695,19 +10632,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65880</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="181" name="CustomShape 1"/>
+      <xdr:rowOff>142200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17182440" y="254880"/>
-          <a:ext cx="1793160" cy="763920"/>
+          <a:ext cx="1792800" cy="763560"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10774,8 +10711,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="32" zoomScaleNormal="32" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="2" sqref="H190 AK347 C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10790,7 +10727,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10801,8 +10737,8 @@
   </sheetPr>
   <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F174" activeCellId="0" sqref="F174"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A271" colorId="64" zoomScale="32" zoomScaleNormal="32" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AK347" activeCellId="1" sqref="H190 AK347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10856,8 +10792,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K54" activeCellId="0" sqref="K54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="32" zoomScaleNormal="32" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K54" activeCellId="2" sqref="H190 AK347 K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10882,8 +10818,8 @@
   </sheetPr>
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R17" activeCellId="0" sqref="R17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="32" zoomScaleNormal="32" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R17" activeCellId="2" sqref="H190 AK347 R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10911,8 +10847,8 @@
   </sheetPr>
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R2" activeCellId="0" sqref="R2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="32" zoomScaleNormal="32" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R2" activeCellId="2" sqref="H190 AK347 R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
